--- a/cooldowns.xlsx
+++ b/cooldowns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Bureaublad\League Bot (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5A23345-578F-4DFE-A997-5C28FC8582B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73048F83-EF50-4F27-BEC2-A972279A00B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B29662F5-47C4-4CA1-BD97-0B128CDABFDA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="575">
   <si>
     <t>Champion</t>
   </si>
@@ -653,18 +653,12 @@
     <t>Kayle</t>
   </si>
   <si>
-    <t>Kayn</t>
-  </si>
-  <si>
     <t>http://leagueoflegends.wikia.com/wiki/Kayn</t>
   </si>
   <si>
     <t>Check for his passive mecanics</t>
   </si>
   <si>
-    <t>&lt;&lt;-- Blue Kayn E CD</t>
-  </si>
-  <si>
     <t>Kennen</t>
   </si>
   <si>
@@ -896,9 +890,6 @@
     <t>6 seconds of Darkness when Nocturne uses his R</t>
   </si>
   <si>
-    <t>Nunu &amp; WIllump</t>
-  </si>
-  <si>
     <t>10 sec</t>
   </si>
   <si>
@@ -1760,14 +1751,23 @@
     <t>16-13-10</t>
   </si>
   <si>
-    <t>Level 1 **4s**%nDoesn't scale with levels</t>
+    <t>Level 1 **4s**</t>
+  </si>
+  <si>
+    <t>Nunu</t>
+  </si>
+  <si>
+    <t>Kayn Normal/Red</t>
+  </si>
+  <si>
+    <t>Kayn Blue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1829,13 +1829,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2404,9 +2397,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2534,7 +2527,7 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2582,19 +2575,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2675,7 +2656,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2684,7 +2665,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2701,6 +2682,57 @@
     </xf>
     <xf numFmtId="16" fontId="4" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2813,24 +2845,6 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2883,36 +2897,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3232,15 +3216,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6840B42-881F-4D54-A75C-44FD07512C15}">
   <dimension ref="A1:W871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="J405" sqref="A1:W871"/>
+    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A404" sqref="A1:W871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3306,7 +3290,7 @@
         <v>20</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="207" thickBot="1" x14ac:dyDescent="0.35">
@@ -3370,10 +3354,10 @@
       <c r="T2" s="16">
         <v>100</v>
       </c>
-      <c r="U2" s="165">
+      <c r="U2" s="100">
         <v>80</v>
       </c>
-      <c r="V2" s="166" t="s">
+      <c r="V2" s="101" t="s">
         <v>23</v>
       </c>
       <c r="W2" s="18" t="s">
@@ -3402,8 +3386,8 @@
       <c r="S3" s="25"/>
       <c r="T3" s="25"/>
       <c r="U3" s="25"/>
-      <c r="V3" s="71" t="s">
-        <v>569</v>
+      <c r="V3" s="67" t="s">
+        <v>566</v>
       </c>
       <c r="W3" s="18" t="s">
         <v>25</v>
@@ -3431,8 +3415,8 @@
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
-      <c r="V4" s="71" t="s">
-        <v>570</v>
+      <c r="V4" s="67" t="s">
+        <v>567</v>
       </c>
       <c r="W4" s="18" t="s">
         <v>26</v>
@@ -4527,20 +4511,20 @@
       <c r="H37" s="42">
         <v>9</v>
       </c>
-      <c r="I37" s="99" t="s">
+      <c r="I37" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="J37" s="100"/>
-      <c r="K37" s="101" t="s">
+      <c r="J37" s="113"/>
+      <c r="K37" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="L37" s="102"/>
-      <c r="M37" s="102"/>
-      <c r="N37" s="102"/>
-      <c r="O37" s="102"/>
-      <c r="P37" s="102"/>
-      <c r="Q37" s="102"/>
-      <c r="R37" s="103"/>
+      <c r="L37" s="115"/>
+      <c r="M37" s="115"/>
+      <c r="N37" s="115"/>
+      <c r="O37" s="115"/>
+      <c r="P37" s="115"/>
+      <c r="Q37" s="115"/>
+      <c r="R37" s="116"/>
       <c r="S37" s="16">
         <v>120</v>
       </c>
@@ -4578,18 +4562,18 @@
       <c r="H38" s="42">
         <v>8.25</v>
       </c>
-      <c r="I38" s="110" t="s">
+      <c r="I38" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="J38" s="111"/>
-      <c r="K38" s="104"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="105"/>
-      <c r="N38" s="105"/>
-      <c r="O38" s="105"/>
-      <c r="P38" s="105"/>
-      <c r="Q38" s="105"/>
-      <c r="R38" s="106"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="118"/>
+      <c r="R38" s="119"/>
       <c r="S38" s="25">
         <v>120</v>
       </c>
@@ -4627,18 +4611,18 @@
       <c r="H39" s="42">
         <v>7.5</v>
       </c>
-      <c r="I39" s="112" t="s">
+      <c r="I39" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="J39" s="113"/>
-      <c r="K39" s="104"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="105"/>
-      <c r="O39" s="105"/>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="105"/>
-      <c r="R39" s="106"/>
+      <c r="J39" s="126"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="118"/>
+      <c r="M39" s="118"/>
+      <c r="N39" s="118"/>
+      <c r="O39" s="118"/>
+      <c r="P39" s="118"/>
+      <c r="Q39" s="118"/>
+      <c r="R39" s="119"/>
       <c r="S39" s="25">
         <v>120</v>
       </c>
@@ -4674,18 +4658,18 @@
       <c r="H40" s="42">
         <v>6.75</v>
       </c>
-      <c r="I40" s="114" t="s">
+      <c r="I40" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="J40" s="115"/>
-      <c r="K40" s="104"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="105"/>
-      <c r="N40" s="105"/>
-      <c r="O40" s="105"/>
-      <c r="P40" s="105"/>
-      <c r="Q40" s="105"/>
-      <c r="R40" s="106"/>
+      <c r="J40" s="128"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="118"/>
+      <c r="M40" s="118"/>
+      <c r="N40" s="118"/>
+      <c r="O40" s="118"/>
+      <c r="P40" s="118"/>
+      <c r="Q40" s="118"/>
+      <c r="R40" s="119"/>
       <c r="S40" s="25">
         <v>120</v>
       </c>
@@ -4723,18 +4707,18 @@
       <c r="H41" s="50">
         <v>6</v>
       </c>
-      <c r="I41" s="116" t="s">
+      <c r="I41" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="J41" s="117"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="108"/>
-      <c r="N41" s="108"/>
-      <c r="O41" s="108"/>
-      <c r="P41" s="108"/>
-      <c r="Q41" s="108"/>
-      <c r="R41" s="109"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="121"/>
+      <c r="M41" s="121"/>
+      <c r="N41" s="121"/>
+      <c r="O41" s="121"/>
+      <c r="P41" s="121"/>
+      <c r="Q41" s="121"/>
+      <c r="R41" s="122"/>
       <c r="S41" s="51">
         <v>120</v>
       </c>
@@ -5802,10 +5786,10 @@
       <c r="T72" s="16">
         <v>100</v>
       </c>
-      <c r="U72" s="165">
+      <c r="U72" s="100">
         <v>80</v>
       </c>
-      <c r="V72" s="166" t="s">
+      <c r="V72" s="101" t="s">
         <v>78</v>
       </c>
       <c r="W72" s="18"/>
@@ -5832,7 +5816,7 @@
       <c r="S73" s="25"/>
       <c r="T73" s="25"/>
       <c r="U73" s="25"/>
-      <c r="V73" s="167">
+      <c r="V73" s="102">
         <v>41456</v>
       </c>
       <c r="W73" s="18"/>
@@ -5859,8 +5843,8 @@
       <c r="S74" s="25"/>
       <c r="T74" s="25"/>
       <c r="U74" s="25"/>
-      <c r="V74" s="71" t="s">
-        <v>571</v>
+      <c r="V74" s="67" t="s">
+        <v>568</v>
       </c>
       <c r="W74" s="18"/>
     </row>
@@ -5886,7 +5870,7 @@
       <c r="S75" s="25"/>
       <c r="T75" s="25"/>
       <c r="U75" s="25"/>
-      <c r="V75" s="168">
+      <c r="V75" s="103">
         <v>38906</v>
       </c>
       <c r="W75" s="18"/>
@@ -5912,9 +5896,9 @@
       <c r="R76" s="32"/>
       <c r="S76" s="33"/>
       <c r="T76" s="33"/>
-      <c r="U76" s="169"/>
-      <c r="V76" s="166" t="s">
-        <v>572</v>
+      <c r="U76" s="104"/>
+      <c r="V76" s="101" t="s">
+        <v>569</v>
       </c>
       <c r="W76" s="35"/>
     </row>
@@ -6146,10 +6130,10 @@
       <c r="T82" s="16">
         <v>115</v>
       </c>
-      <c r="U82" s="165">
+      <c r="U82" s="100">
         <v>90</v>
       </c>
-      <c r="V82" s="166" t="s">
+      <c r="V82" s="101" t="s">
         <v>78</v>
       </c>
       <c r="W82" s="18"/>
@@ -6176,7 +6160,7 @@
       <c r="S83" s="25"/>
       <c r="T83" s="25"/>
       <c r="U83" s="25"/>
-      <c r="V83" s="167">
+      <c r="V83" s="102">
         <v>41456</v>
       </c>
       <c r="W83" s="18"/>
@@ -6203,8 +6187,8 @@
       <c r="S84" s="25"/>
       <c r="T84" s="25"/>
       <c r="U84" s="25"/>
-      <c r="V84" s="71" t="s">
-        <v>571</v>
+      <c r="V84" s="67" t="s">
+        <v>568</v>
       </c>
       <c r="W84" s="18"/>
     </row>
@@ -6230,8 +6214,8 @@
       <c r="S85" s="25"/>
       <c r="T85" s="25"/>
       <c r="U85" s="25"/>
-      <c r="V85" s="71" t="s">
-        <v>573</v>
+      <c r="V85" s="67" t="s">
+        <v>570</v>
       </c>
       <c r="W85" s="18"/>
     </row>
@@ -7611,7 +7595,7 @@
     <row r="127" spans="1:23" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="19"/>
       <c r="B127" s="11" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C127" s="12">
         <v>0</v>
@@ -7776,7 +7760,7 @@
     <row r="132" spans="1:23" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="19"/>
       <c r="B132" s="11" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C132" s="12">
         <v>0</v>
@@ -8001,7 +7985,7 @@
         <v>80</v>
       </c>
       <c r="V137" s="17" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="W137" s="18" t="s">
         <v>109</v>
@@ -10254,8 +10238,8 @@
       <c r="S203" s="25"/>
       <c r="T203" s="25"/>
       <c r="U203" s="25"/>
-      <c r="V203" s="160" t="s">
-        <v>555</v>
+      <c r="V203" s="95" t="s">
+        <v>552</v>
       </c>
       <c r="W203" s="18" t="s">
         <v>160</v>
@@ -11186,7 +11170,7 @@
     <row r="232" spans="1:23" ht="132" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="19"/>
       <c r="B232" s="11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C232" s="12">
         <v>0</v>
@@ -11357,7 +11341,7 @@
     <row r="237" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="19"/>
       <c r="B237" s="20" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C237" s="12">
         <v>0</v>
@@ -12290,7 +12274,7 @@
       <c r="U263" s="25"/>
       <c r="V263" s="25"/>
       <c r="W263" s="18" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="264" spans="1:23" ht="188.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -13047,7 +13031,7 @@
     <row r="287" spans="1:23" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="19"/>
       <c r="B287" s="11" t="s">
-        <v>205</v>
+        <v>573</v>
       </c>
       <c r="C287" s="12">
         <v>0</v>
@@ -13106,11 +13090,9 @@
       <c r="U287" s="16">
         <v>80</v>
       </c>
-      <c r="V287" s="59">
-        <v>8</v>
-      </c>
+      <c r="V287" s="26"/>
       <c r="W287" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="288" spans="1:23" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -13145,9 +13127,9 @@
       <c r="S288" s="25"/>
       <c r="T288" s="25"/>
       <c r="U288" s="25"/>
-      <c r="V288" s="60"/>
+      <c r="V288" s="26"/>
       <c r="W288" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="289" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13172,10 +13154,10 @@
       <c r="S289" s="25"/>
       <c r="T289" s="25"/>
       <c r="U289" s="25"/>
-      <c r="V289" s="60"/>
+      <c r="V289" s="26"/>
       <c r="W289" s="18"/>
     </row>
-    <row r="290" spans="1:23" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="19"/>
       <c r="B290" s="20"/>
       <c r="C290" s="21"/>
@@ -13197,10 +13179,8 @@
       <c r="S290" s="25"/>
       <c r="T290" s="25"/>
       <c r="U290" s="25"/>
-      <c r="V290" s="60"/>
-      <c r="W290" s="61" t="s">
-        <v>208</v>
-      </c>
+      <c r="V290" s="26"/>
+      <c r="W290" s="105"/>
     </row>
     <row r="291" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="27"/>
@@ -13224,79 +13204,79 @@
       <c r="S291" s="33"/>
       <c r="T291" s="33"/>
       <c r="U291" s="33"/>
-      <c r="V291" s="62"/>
+      <c r="V291" s="34"/>
       <c r="W291" s="35"/>
     </row>
-    <row r="292" spans="1:23" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:23" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="19"/>
       <c r="B292" s="11" t="s">
-        <v>209</v>
+        <v>574</v>
       </c>
       <c r="C292" s="12">
         <v>0</v>
       </c>
       <c r="D292" s="13">
-        <v>8</v>
-      </c>
-      <c r="E292" s="13">
         <v>7</v>
+      </c>
+      <c r="E292" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="F292" s="13">
         <v>6</v>
       </c>
-      <c r="G292" s="13">
+      <c r="G292" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H292" s="13">
         <v>5</v>
       </c>
-      <c r="H292" s="13">
-        <v>4</v>
-      </c>
       <c r="I292" s="14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J292" s="14">
         <v>12</v>
       </c>
       <c r="K292" s="14">
+        <v>11</v>
+      </c>
+      <c r="L292" s="14">
         <v>10</v>
       </c>
-      <c r="L292" s="14">
-        <v>8</v>
-      </c>
       <c r="M292" s="14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N292" s="15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O292" s="15">
+        <v>11</v>
+      </c>
+      <c r="P292" s="15">
         <v>9</v>
-      </c>
-      <c r="P292" s="15">
-        <v>8</v>
       </c>
       <c r="Q292" s="15">
         <v>7</v>
       </c>
       <c r="R292" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S292" s="16">
         <v>120</v>
       </c>
       <c r="T292" s="16">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="U292" s="16">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="V292" s="17">
-        <v>6</v>
-      </c>
-      <c r="W292" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="293" spans="1:23" ht="132" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="W292" s="43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="293" spans="1:23" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="19"/>
       <c r="B293" s="20"/>
       <c r="C293" s="21"/>
@@ -13320,7 +13300,7 @@
       <c r="U293" s="25"/>
       <c r="V293" s="26"/>
       <c r="W293" s="18" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="294" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13348,7 +13328,7 @@
       <c r="V294" s="26"/>
       <c r="W294" s="18"/>
     </row>
-    <row r="295" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="19"/>
       <c r="B295" s="20"/>
       <c r="C295" s="21"/>
@@ -13371,7 +13351,7 @@
       <c r="T295" s="25"/>
       <c r="U295" s="25"/>
       <c r="V295" s="26"/>
-      <c r="W295" s="18"/>
+      <c r="W295" s="105"/>
     </row>
     <row r="296" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="27"/>
@@ -13401,7 +13381,7 @@
     <row r="297" spans="1:23" ht="207" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="19"/>
       <c r="B297" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C297" s="12">
         <v>0</v>
@@ -13462,7 +13442,7 @@
       </c>
       <c r="V297" s="26"/>
       <c r="W297" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="298" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13514,7 +13494,7 @@
       <c r="U299" s="25"/>
       <c r="V299" s="26"/>
       <c r="W299" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="300" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13570,7 +13550,7 @@
     <row r="302" spans="1:23" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="19"/>
       <c r="B302" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C302" s="12">
         <v>0</v>
@@ -13630,10 +13610,10 @@
         <v>120</v>
       </c>
       <c r="V302" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W302" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="303" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13660,7 +13640,7 @@
       <c r="U303" s="25"/>
       <c r="V303" s="26"/>
       <c r="W303" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="304" spans="1:23" ht="244.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13687,7 +13667,7 @@
       <c r="U304" s="25"/>
       <c r="V304" s="26"/>
       <c r="W304" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="305" spans="1:23" ht="188.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -13714,7 +13694,7 @@
       <c r="U305" s="25"/>
       <c r="V305" s="26"/>
       <c r="W305" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="306" spans="1:23" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13740,14 +13720,14 @@
       <c r="T306" s="33"/>
       <c r="U306" s="33"/>
       <c r="V306" s="34"/>
-      <c r="W306" s="63" t="s">
-        <v>221</v>
+      <c r="W306" s="59" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="307" spans="1:23" ht="207" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="19"/>
       <c r="B307" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C307" s="12">
         <v>0</v>
@@ -13810,7 +13790,7 @@
         <v>30</v>
       </c>
       <c r="W307" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="308" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13862,7 +13842,7 @@
       <c r="U309" s="25"/>
       <c r="V309" s="26"/>
       <c r="W309" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="310" spans="1:23" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13889,7 +13869,7 @@
       <c r="U310" s="25"/>
       <c r="V310" s="26"/>
       <c r="W310" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="311" spans="1:23" ht="90" thickBot="1" x14ac:dyDescent="0.3">
@@ -13916,13 +13896,13 @@
       <c r="U311" s="33"/>
       <c r="V311" s="34"/>
       <c r="W311" s="35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="312" spans="1:23" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="19"/>
       <c r="B312" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C312" s="12">
         <v>0</v>
@@ -13983,7 +13963,7 @@
       </c>
       <c r="V312" s="26"/>
       <c r="W312" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="313" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -14088,10 +14068,10 @@
     </row>
     <row r="317" spans="1:23" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C317" s="12">
         <v>0</v>
@@ -14154,7 +14134,7 @@
         <v>60</v>
       </c>
       <c r="W317" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="318" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -14260,7 +14240,7 @@
     <row r="322" spans="1:23" ht="207" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="19"/>
       <c r="B322" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C322" s="12">
         <v>0</v>
@@ -14321,7 +14301,7 @@
       </c>
       <c r="V322" s="26"/>
       <c r="W322" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="323" spans="1:23" ht="188.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -14348,7 +14328,7 @@
       <c r="U323" s="25"/>
       <c r="V323" s="26"/>
       <c r="W323" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="324" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -14429,7 +14409,7 @@
     <row r="327" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="19"/>
       <c r="B327" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C327" s="12">
         <v>0</v>
@@ -14594,7 +14574,7 @@
     <row r="332" spans="1:23" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="19"/>
       <c r="B332" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C332" s="12">
         <v>0</v>
@@ -14759,7 +14739,7 @@
     <row r="337" spans="1:23" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="19"/>
       <c r="B337" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C337" s="12">
         <v>0</v>
@@ -14820,7 +14800,7 @@
       </c>
       <c r="V337" s="26"/>
       <c r="W337" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="338" spans="1:23" ht="207" thickBot="1" x14ac:dyDescent="0.3">
@@ -14847,7 +14827,7 @@
       <c r="U338" s="25"/>
       <c r="V338" s="26"/>
       <c r="W338" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="339" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -14928,7 +14908,7 @@
     <row r="342" spans="1:23" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="19"/>
       <c r="B342" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C342" s="12">
         <v>0</v>
@@ -14989,7 +14969,7 @@
       </c>
       <c r="V342" s="26"/>
       <c r="W342" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="343" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -15095,7 +15075,7 @@
     <row r="347" spans="1:23" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="19"/>
       <c r="B347" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C347" s="12">
         <v>0</v>
@@ -15156,7 +15136,7 @@
       </c>
       <c r="V347" s="26"/>
       <c r="W347" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="348" spans="1:23" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15183,7 +15163,7 @@
       <c r="U348" s="25"/>
       <c r="V348" s="26"/>
       <c r="W348" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="349" spans="1:23" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15210,7 +15190,7 @@
       <c r="U349" s="25"/>
       <c r="V349" s="26"/>
       <c r="W349" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="350" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -15265,10 +15245,10 @@
     </row>
     <row r="352" spans="1:23" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C352" s="12">
         <v>0</v>
@@ -15331,7 +15311,7 @@
         <v>10</v>
       </c>
       <c r="W352" s="55" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="353" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -15360,7 +15340,7 @@
         <v>8</v>
       </c>
       <c r="W353" s="55" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="354" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -15389,7 +15369,7 @@
         <v>6</v>
       </c>
       <c r="W354" s="55" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="355" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -15445,7 +15425,7 @@
     <row r="357" spans="1:23" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="19"/>
       <c r="B357" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C357" s="12">
         <v>0</v>
@@ -15508,7 +15488,7 @@
         <v>30</v>
       </c>
       <c r="W357" s="55" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="358" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -15537,7 +15517,7 @@
         <v>24</v>
       </c>
       <c r="W358" s="55" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="359" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -15566,7 +15546,7 @@
         <v>18</v>
       </c>
       <c r="W359" s="55" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="360" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -15595,7 +15575,7 @@
         <v>12</v>
       </c>
       <c r="W360" s="55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="361" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15626,7 +15606,7 @@
     <row r="362" spans="1:23" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="19"/>
       <c r="B362" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C362" s="12">
         <v>0</v>
@@ -15689,7 +15669,7 @@
         <v>30</v>
       </c>
       <c r="W362" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="363" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -15718,7 +15698,7 @@
         <v>25</v>
       </c>
       <c r="W363" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="364" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -15747,7 +15727,7 @@
         <v>20</v>
       </c>
       <c r="W364" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="365" spans="1:23" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15774,7 +15754,7 @@
       <c r="U365" s="25"/>
       <c r="V365" s="26"/>
       <c r="W365" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="366" spans="1:23" ht="90" thickBot="1" x14ac:dyDescent="0.3">
@@ -15801,13 +15781,13 @@
       <c r="U366" s="33"/>
       <c r="V366" s="34"/>
       <c r="W366" s="35" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="367" spans="1:23" ht="132" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="19"/>
       <c r="B367" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C367" s="12">
         <v>0</v>
@@ -15868,7 +15848,7 @@
       </c>
       <c r="V367" s="26"/>
       <c r="W367" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="368" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -15920,7 +15900,7 @@
       <c r="U369" s="25"/>
       <c r="V369" s="26"/>
       <c r="W369" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="370" spans="1:23" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15947,7 +15927,7 @@
       <c r="U370" s="25"/>
       <c r="V370" s="26"/>
       <c r="W370" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="371" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15978,7 +15958,7 @@
     <row r="372" spans="1:23" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="19"/>
       <c r="B372" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C372" s="12">
         <v>0</v>
@@ -16039,7 +16019,7 @@
       </c>
       <c r="V372" s="26"/>
       <c r="W372" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="373" spans="1:23" ht="57" thickBot="1" x14ac:dyDescent="0.3">
@@ -16066,7 +16046,7 @@
       <c r="U373" s="25"/>
       <c r="V373" s="26"/>
       <c r="W373" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="374" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -16147,7 +16127,7 @@
     <row r="377" spans="1:23" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="19"/>
       <c r="B377" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C377" s="12">
         <v>0</v>
@@ -16162,7 +16142,7 @@
         <v>63</v>
       </c>
       <c r="G377" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H377" s="13">
         <v>4</v>
@@ -16312,7 +16292,7 @@
     <row r="382" spans="1:23" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="19"/>
       <c r="B382" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C382" s="12">
         <v>0</v>
@@ -16373,7 +16353,7 @@
       </c>
       <c r="V382" s="26"/>
       <c r="W382" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="383" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -16478,10 +16458,10 @@
     </row>
     <row r="387" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B387" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C387" s="12">
         <v>0</v>
@@ -16646,7 +16626,7 @@
     <row r="392" spans="1:23" ht="132" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="19"/>
       <c r="B392" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C392" s="12">
         <v>0</v>
@@ -16707,7 +16687,7 @@
       </c>
       <c r="V392" s="26"/>
       <c r="W392" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="393" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -16813,7 +16793,7 @@
     <row r="397" spans="1:23" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="19"/>
       <c r="B397" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C397" s="12">
         <v>0</v>
@@ -16876,7 +16856,7 @@
         <v>6</v>
       </c>
       <c r="W397" s="55" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="398" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -16905,7 +16885,7 @@
         <v>6</v>
       </c>
       <c r="W398" s="55" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="399" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -16934,7 +16914,7 @@
         <v>6</v>
       </c>
       <c r="W399" s="55" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="400" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -16963,7 +16943,7 @@
         <v>6</v>
       </c>
       <c r="W400" s="55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="401" spans="1:23" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -16989,193 +16969,193 @@
       <c r="T401" s="33"/>
       <c r="U401" s="33"/>
       <c r="V401" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="W401" s="35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="402" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A402" s="60"/>
+      <c r="B402" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="W401" s="35" t="s">
+      <c r="C402" s="62">
+        <v>0</v>
+      </c>
+      <c r="D402" s="63">
+        <v>7</v>
+      </c>
+      <c r="E402" s="63">
+        <v>7</v>
+      </c>
+      <c r="F402" s="63">
+        <v>7</v>
+      </c>
+      <c r="G402" s="63">
+        <v>7</v>
+      </c>
+      <c r="H402" s="63">
+        <v>7</v>
+      </c>
+      <c r="I402" s="64">
+        <v>20</v>
+      </c>
+      <c r="J402" s="64">
+        <v>19</v>
+      </c>
+      <c r="K402" s="64">
+        <v>18</v>
+      </c>
+      <c r="L402" s="64">
+        <v>17</v>
+      </c>
+      <c r="M402" s="64">
+        <v>16</v>
+      </c>
+      <c r="N402" s="65">
+        <v>12</v>
+      </c>
+      <c r="O402" s="65">
+        <v>11.5</v>
+      </c>
+      <c r="P402" s="65">
+        <v>11</v>
+      </c>
+      <c r="Q402" s="65">
+        <v>10.5</v>
+      </c>
+      <c r="R402" s="65">
+        <v>10</v>
+      </c>
+      <c r="S402" s="66">
+        <v>90</v>
+      </c>
+      <c r="T402" s="66">
+        <v>90</v>
+      </c>
+      <c r="U402" s="66">
+        <v>90</v>
+      </c>
+      <c r="V402" s="67">
+        <v>25</v>
+      </c>
+      <c r="W402" s="68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="403" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="60"/>
+      <c r="B403" s="20"/>
+      <c r="C403" s="69"/>
+      <c r="D403" s="70"/>
+      <c r="E403" s="70"/>
+      <c r="F403" s="70"/>
+      <c r="G403" s="70"/>
+      <c r="H403" s="70"/>
+      <c r="I403" s="71"/>
+      <c r="J403" s="71"/>
+      <c r="K403" s="71"/>
+      <c r="L403" s="71"/>
+      <c r="M403" s="71"/>
+      <c r="N403" s="72"/>
+      <c r="O403" s="72"/>
+      <c r="P403" s="72"/>
+      <c r="Q403" s="72"/>
+      <c r="R403" s="72"/>
+      <c r="S403" s="73"/>
+      <c r="T403" s="73"/>
+      <c r="U403" s="73"/>
+      <c r="V403" s="67">
+        <v>10</v>
+      </c>
+      <c r="W403" s="68" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="404" spans="1:23" ht="113.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A404" s="60"/>
+      <c r="B404" s="20"/>
+      <c r="C404" s="69"/>
+      <c r="D404" s="70"/>
+      <c r="E404" s="70"/>
+      <c r="F404" s="70"/>
+      <c r="G404" s="70"/>
+      <c r="H404" s="70"/>
+      <c r="I404" s="71"/>
+      <c r="J404" s="71"/>
+      <c r="K404" s="71"/>
+      <c r="L404" s="71"/>
+      <c r="M404" s="71"/>
+      <c r="N404" s="72"/>
+      <c r="O404" s="72"/>
+      <c r="P404" s="72"/>
+      <c r="Q404" s="72"/>
+      <c r="R404" s="72"/>
+      <c r="S404" s="73"/>
+      <c r="T404" s="73"/>
+      <c r="U404" s="73"/>
+      <c r="V404" s="67"/>
+      <c r="W404" s="36" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="402" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A402" s="64"/>
-      <c r="B402" s="65" t="s">
+    <row r="405" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A405" s="60"/>
+      <c r="B405" s="20"/>
+      <c r="C405" s="69"/>
+      <c r="D405" s="70"/>
+      <c r="E405" s="70"/>
+      <c r="F405" s="70"/>
+      <c r="G405" s="70"/>
+      <c r="H405" s="70"/>
+      <c r="I405" s="71"/>
+      <c r="J405" s="71"/>
+      <c r="K405" s="71"/>
+      <c r="L405" s="71"/>
+      <c r="M405" s="71"/>
+      <c r="N405" s="72"/>
+      <c r="O405" s="72"/>
+      <c r="P405" s="72"/>
+      <c r="Q405" s="72"/>
+      <c r="R405" s="72"/>
+      <c r="S405" s="73"/>
+      <c r="T405" s="73"/>
+      <c r="U405" s="73"/>
+      <c r="V405" s="67"/>
+      <c r="W405" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="C402" s="66">
-        <v>0</v>
-      </c>
-      <c r="D402" s="67">
-        <v>7</v>
-      </c>
-      <c r="E402" s="67">
-        <v>7</v>
-      </c>
-      <c r="F402" s="67">
-        <v>7</v>
-      </c>
-      <c r="G402" s="67">
-        <v>7</v>
-      </c>
-      <c r="H402" s="67">
-        <v>7</v>
-      </c>
-      <c r="I402" s="68">
-        <v>20</v>
-      </c>
-      <c r="J402" s="68">
-        <v>19</v>
-      </c>
-      <c r="K402" s="68">
-        <v>18</v>
-      </c>
-      <c r="L402" s="68">
-        <v>17</v>
-      </c>
-      <c r="M402" s="68">
-        <v>16</v>
-      </c>
-      <c r="N402" s="69">
-        <v>12</v>
-      </c>
-      <c r="O402" s="69">
-        <v>11.5</v>
-      </c>
-      <c r="P402" s="69">
-        <v>11</v>
-      </c>
-      <c r="Q402" s="69">
-        <v>10.5</v>
-      </c>
-      <c r="R402" s="69">
-        <v>10</v>
-      </c>
-      <c r="S402" s="70">
-        <v>90</v>
-      </c>
-      <c r="T402" s="70">
-        <v>90</v>
-      </c>
-      <c r="U402" s="70">
-        <v>90</v>
-      </c>
-      <c r="V402" s="71">
-        <v>25</v>
-      </c>
-      <c r="W402" s="72" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="403" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A403" s="64"/>
-      <c r="B403" s="20"/>
-      <c r="C403" s="73"/>
-      <c r="D403" s="74"/>
-      <c r="E403" s="74"/>
-      <c r="F403" s="74"/>
-      <c r="G403" s="74"/>
-      <c r="H403" s="74"/>
-      <c r="I403" s="75"/>
-      <c r="J403" s="75"/>
-      <c r="K403" s="75"/>
-      <c r="L403" s="75"/>
-      <c r="M403" s="75"/>
-      <c r="N403" s="76"/>
-      <c r="O403" s="76"/>
-      <c r="P403" s="76"/>
-      <c r="Q403" s="76"/>
-      <c r="R403" s="76"/>
-      <c r="S403" s="77"/>
-      <c r="T403" s="77"/>
-      <c r="U403" s="77"/>
-      <c r="V403" s="71">
-        <v>10</v>
-      </c>
-      <c r="W403" s="72" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="404" spans="1:23" ht="113.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A404" s="64"/>
-      <c r="B404" s="20"/>
-      <c r="C404" s="73"/>
-      <c r="D404" s="74"/>
-      <c r="E404" s="74"/>
-      <c r="F404" s="74"/>
-      <c r="G404" s="74"/>
-      <c r="H404" s="74"/>
-      <c r="I404" s="75"/>
-      <c r="J404" s="75"/>
-      <c r="K404" s="75"/>
-      <c r="L404" s="75"/>
-      <c r="M404" s="75"/>
-      <c r="N404" s="76"/>
-      <c r="O404" s="76"/>
-      <c r="P404" s="76"/>
-      <c r="Q404" s="76"/>
-      <c r="R404" s="76"/>
-      <c r="S404" s="77"/>
-      <c r="T404" s="77"/>
-      <c r="U404" s="77"/>
-      <c r="V404" s="71"/>
-      <c r="W404" s="36" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="405" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A405" s="64"/>
-      <c r="B405" s="20"/>
-      <c r="C405" s="73"/>
-      <c r="D405" s="74"/>
-      <c r="E405" s="74"/>
-      <c r="F405" s="74"/>
-      <c r="G405" s="74"/>
-      <c r="H405" s="74"/>
-      <c r="I405" s="75"/>
-      <c r="J405" s="75"/>
-      <c r="K405" s="75"/>
-      <c r="L405" s="75"/>
-      <c r="M405" s="75"/>
-      <c r="N405" s="76"/>
-      <c r="O405" s="76"/>
-      <c r="P405" s="76"/>
-      <c r="Q405" s="76"/>
-      <c r="R405" s="76"/>
-      <c r="S405" s="77"/>
-      <c r="T405" s="77"/>
-      <c r="U405" s="77"/>
-      <c r="V405" s="71"/>
-      <c r="W405" s="36" t="s">
-        <v>278</v>
-      </c>
     </row>
     <row r="406" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="78"/>
+      <c r="A406" s="74"/>
       <c r="B406" s="28"/>
-      <c r="C406" s="79"/>
-      <c r="D406" s="80"/>
-      <c r="E406" s="80"/>
-      <c r="F406" s="80"/>
-      <c r="G406" s="80"/>
-      <c r="H406" s="80"/>
-      <c r="I406" s="81"/>
-      <c r="J406" s="81"/>
-      <c r="K406" s="81"/>
-      <c r="L406" s="81"/>
-      <c r="M406" s="81"/>
-      <c r="N406" s="82"/>
-      <c r="O406" s="82"/>
-      <c r="P406" s="82"/>
-      <c r="Q406" s="82"/>
-      <c r="R406" s="82"/>
-      <c r="S406" s="83"/>
-      <c r="T406" s="83"/>
-      <c r="U406" s="83"/>
-      <c r="V406" s="84"/>
-      <c r="W406" s="85"/>
+      <c r="C406" s="75"/>
+      <c r="D406" s="76"/>
+      <c r="E406" s="76"/>
+      <c r="F406" s="76"/>
+      <c r="G406" s="76"/>
+      <c r="H406" s="76"/>
+      <c r="I406" s="77"/>
+      <c r="J406" s="77"/>
+      <c r="K406" s="77"/>
+      <c r="L406" s="77"/>
+      <c r="M406" s="77"/>
+      <c r="N406" s="78"/>
+      <c r="O406" s="78"/>
+      <c r="P406" s="78"/>
+      <c r="Q406" s="78"/>
+      <c r="R406" s="78"/>
+      <c r="S406" s="79"/>
+      <c r="T406" s="79"/>
+      <c r="U406" s="79"/>
+      <c r="V406" s="80"/>
+      <c r="W406" s="81"/>
     </row>
     <row r="407" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="19"/>
       <c r="B407" s="11" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C407" s="12">
         <v>0</v>
@@ -17236,7 +17216,7 @@
       </c>
       <c r="V407" s="17"/>
       <c r="W407" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="408" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -17342,7 +17322,7 @@
     <row r="412" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="19"/>
       <c r="B412" s="11" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C412" s="12">
         <v>0</v>
@@ -17403,7 +17383,7 @@
       </c>
       <c r="V412" s="26"/>
       <c r="W412" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="413" spans="1:23" ht="132" thickBot="1" x14ac:dyDescent="0.3">
@@ -17430,7 +17410,7 @@
       <c r="U413" s="25"/>
       <c r="V413" s="26"/>
       <c r="W413" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="414" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -17511,7 +17491,7 @@
     <row r="417" spans="1:23" ht="207" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="19"/>
       <c r="B417" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C417" s="12">
         <v>0</v>
@@ -17574,7 +17554,7 @@
         <v>14</v>
       </c>
       <c r="W417" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="418" spans="1:23" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -17601,7 +17581,7 @@
       <c r="U418" s="25"/>
       <c r="V418" s="26"/>
       <c r="W418" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="419" spans="1:23" ht="188.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -17628,7 +17608,7 @@
       <c r="U419" s="25"/>
       <c r="V419" s="26"/>
       <c r="W419" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="420" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -17684,7 +17664,7 @@
     <row r="422" spans="1:23" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="19"/>
       <c r="B422" s="11" t="s">
-        <v>286</v>
+        <v>572</v>
       </c>
       <c r="C422" s="12">
         <v>0</v>
@@ -17744,10 +17724,10 @@
         <v>90</v>
       </c>
       <c r="V422" s="17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="W422" s="18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="423" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -17773,7 +17753,7 @@
       <c r="T423" s="25"/>
       <c r="U423" s="25"/>
       <c r="V423" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="W423" s="18"/>
     </row>
@@ -17854,10 +17834,10 @@
     </row>
     <row r="427" spans="1:23" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B427" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C427" s="12">
         <v>0</v>
@@ -17918,7 +17898,7 @@
       </c>
       <c r="V427" s="26"/>
       <c r="W427" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="428" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -17970,7 +17950,7 @@
       <c r="U429" s="25"/>
       <c r="V429" s="26"/>
       <c r="W429" s="18" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="430" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -18026,7 +18006,7 @@
     <row r="432" spans="1:23" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="19"/>
       <c r="B432" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C432" s="12">
         <v>0</v>
@@ -18191,7 +18171,7 @@
     <row r="437" spans="1:23" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="19"/>
       <c r="B437" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C437" s="12">
         <v>0</v>
@@ -18252,7 +18232,7 @@
       </c>
       <c r="V437" s="26"/>
       <c r="W437" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="438" spans="1:23" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -18279,7 +18259,7 @@
       <c r="U438" s="25"/>
       <c r="V438" s="26"/>
       <c r="W438" s="18" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="439" spans="1:23" ht="132" thickBot="1" x14ac:dyDescent="0.3">
@@ -18306,7 +18286,7 @@
       <c r="U439" s="25"/>
       <c r="V439" s="26"/>
       <c r="W439" s="18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="440" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18333,7 +18313,7 @@
       <c r="U440" s="25"/>
       <c r="V440" s="26"/>
       <c r="W440" s="18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="441" spans="1:23" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18359,16 +18339,16 @@
       <c r="T441" s="33"/>
       <c r="U441" s="33"/>
       <c r="V441" s="34"/>
-      <c r="W441" s="63" t="s">
-        <v>299</v>
+      <c r="W441" s="59" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="442" spans="1:23" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B442" s="11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C442" s="12">
         <v>0</v>
@@ -18429,7 +18409,7 @@
       </c>
       <c r="V442" s="26"/>
       <c r="W442" s="18" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="443" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -18481,7 +18461,7 @@
       <c r="U444" s="25"/>
       <c r="V444" s="26"/>
       <c r="W444" s="18" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="445" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -18537,7 +18517,7 @@
     <row r="447" spans="1:23" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="19"/>
       <c r="B447" s="11" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C447" s="12">
         <v>0</v>
@@ -18597,10 +18577,10 @@
         <v>100</v>
       </c>
       <c r="V447" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="W447" s="18" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="448" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -18626,7 +18606,7 @@
       <c r="T448" s="25"/>
       <c r="U448" s="25"/>
       <c r="V448" s="26" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="W448" s="18"/>
     </row>
@@ -18653,7 +18633,7 @@
       <c r="T449" s="25"/>
       <c r="U449" s="25"/>
       <c r="V449" s="26" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="W449" s="18"/>
     </row>
@@ -18710,7 +18690,7 @@
     <row r="452" spans="1:23" ht="244.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="19"/>
       <c r="B452" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C452" s="12">
         <v>0</v>
@@ -18771,7 +18751,7 @@
       </c>
       <c r="V452" s="26"/>
       <c r="W452" s="18" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="453" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -18876,10 +18856,10 @@
     </row>
     <row r="457" spans="1:23" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B457" s="11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C457" s="12">
         <v>0</v>
@@ -18939,10 +18919,10 @@
         <v>120</v>
       </c>
       <c r="V457" s="17" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="W457" s="18" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="458" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18968,10 +18948,10 @@
       <c r="T458" s="25"/>
       <c r="U458" s="25"/>
       <c r="V458" s="26" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="W458" s="18" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="459" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -18997,7 +18977,7 @@
       <c r="T459" s="25"/>
       <c r="U459" s="25"/>
       <c r="V459" s="26" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="W459" s="18"/>
     </row>
@@ -19027,7 +19007,7 @@
       <c r="W460" s="18"/>
     </row>
     <row r="461" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A461" s="86"/>
+      <c r="A461" s="82"/>
       <c r="B461" s="28"/>
       <c r="C461" s="29"/>
       <c r="D461" s="30"/>
@@ -19054,7 +19034,7 @@
     <row r="462" spans="1:23" ht="188.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="10"/>
       <c r="B462" s="11" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C462" s="12">
         <v>0</v>
@@ -19108,10 +19088,10 @@
       <c r="T462" s="16"/>
       <c r="U462" s="16"/>
       <c r="V462" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="W462" s="18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="463" spans="1:23" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19138,7 +19118,7 @@
       <c r="U463" s="25"/>
       <c r="V463" s="26"/>
       <c r="W463" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="464" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -19218,10 +19198,10 @@
     </row>
     <row r="467" spans="1:23" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B467" s="11" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C467" s="12">
         <v>0</v>
@@ -19281,10 +19261,10 @@
         <v>90</v>
       </c>
       <c r="V467" s="17" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="W467" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="468" spans="1:23" ht="244.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -19311,7 +19291,7 @@
       <c r="U468" s="25"/>
       <c r="V468" s="26"/>
       <c r="W468" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="469" spans="1:23" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -19338,7 +19318,7 @@
       <c r="U469" s="25"/>
       <c r="V469" s="26"/>
       <c r="W469" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="470" spans="1:23" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19365,7 +19345,7 @@
       <c r="U470" s="25"/>
       <c r="V470" s="26"/>
       <c r="W470" s="18" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="471" spans="1:23" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -19392,13 +19372,13 @@
       <c r="U471" s="33"/>
       <c r="V471" s="34"/>
       <c r="W471" s="35" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="472" spans="1:23" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="19"/>
       <c r="B472" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C472" s="12">
         <v>0</v>
@@ -19562,8 +19542,8 @@
     </row>
     <row r="477" spans="1:23" ht="207" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="19"/>
-      <c r="B477" s="161" t="s">
-        <v>558</v>
+      <c r="B477" s="96" t="s">
+        <v>555</v>
       </c>
       <c r="C477" s="12">
         <v>0</v>
@@ -19624,7 +19604,7 @@
       </c>
       <c r="V477" s="26"/>
       <c r="W477" s="18" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="478" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -19730,7 +19710,7 @@
     <row r="482" spans="1:23" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="19"/>
       <c r="B482" s="20" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C482" s="12">
         <v>0</v>
@@ -19791,7 +19771,7 @@
       </c>
       <c r="V482" s="26"/>
       <c r="W482" s="18" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="483" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -19803,11 +19783,11 @@
       <c r="F483" s="22"/>
       <c r="G483" s="22"/>
       <c r="H483" s="22"/>
-      <c r="I483" s="118"/>
-      <c r="J483" s="119"/>
-      <c r="K483" s="119"/>
-      <c r="L483" s="119"/>
-      <c r="M483" s="120"/>
+      <c r="I483" s="131"/>
+      <c r="J483" s="132"/>
+      <c r="K483" s="132"/>
+      <c r="L483" s="132"/>
+      <c r="M483" s="133"/>
       <c r="N483" s="24"/>
       <c r="O483" s="24"/>
       <c r="P483" s="24"/>
@@ -19897,7 +19877,7 @@
     <row r="487" spans="1:23" ht="244.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="19"/>
       <c r="B487" s="11" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C487" s="12">
         <v>0</v>
@@ -19958,7 +19938,7 @@
       </c>
       <c r="V487" s="26"/>
       <c r="W487" s="18" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="488" spans="1:23" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19985,7 +19965,7 @@
       <c r="U488" s="25"/>
       <c r="V488" s="26"/>
       <c r="W488" s="18" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="489" spans="1:23" ht="207" thickBot="1" x14ac:dyDescent="0.3">
@@ -20012,7 +19992,7 @@
       <c r="U489" s="25"/>
       <c r="V489" s="26"/>
       <c r="W489" s="18" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="490" spans="1:23" ht="244.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -20039,7 +20019,7 @@
       <c r="U490" s="25"/>
       <c r="V490" s="26"/>
       <c r="W490" s="18" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="491" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -20066,13 +20046,13 @@
       <c r="U491" s="33"/>
       <c r="V491" s="34"/>
       <c r="W491" s="35" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="492" spans="1:23" ht="244.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="19"/>
       <c r="B492" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C492" s="12">
         <v>0</v>
@@ -20133,7 +20113,7 @@
       </c>
       <c r="V492" s="26"/>
       <c r="W492" s="18" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="493" spans="1:23" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20160,7 +20140,7 @@
       <c r="U493" s="25"/>
       <c r="V493" s="26"/>
       <c r="W493" s="18" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="494" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -20241,7 +20221,7 @@
     <row r="497" spans="1:23" ht="244.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="19"/>
       <c r="B497" s="11" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C497" s="12">
         <v>0</v>
@@ -20302,7 +20282,7 @@
       </c>
       <c r="V497" s="26"/>
       <c r="W497" s="18" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="498" spans="1:23" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20329,7 +20309,7 @@
       <c r="U498" s="25"/>
       <c r="V498" s="26"/>
       <c r="W498" s="18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="499" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20356,7 +20336,7 @@
       <c r="U499" s="25"/>
       <c r="V499" s="26"/>
       <c r="W499" s="18" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="500" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -20412,7 +20392,7 @@
     <row r="502" spans="1:23" ht="244.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="19"/>
       <c r="B502" s="11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C502" s="12">
         <v>0</v>
@@ -20473,7 +20453,7 @@
       </c>
       <c r="V502" s="26"/>
       <c r="W502" s="18" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="503" spans="1:23" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -20500,7 +20480,7 @@
       <c r="U503" s="25"/>
       <c r="V503" s="26"/>
       <c r="W503" s="18" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="504" spans="1:23" ht="132" thickBot="1" x14ac:dyDescent="0.3">
@@ -20527,7 +20507,7 @@
       <c r="U504" s="25"/>
       <c r="V504" s="26"/>
       <c r="W504" s="18" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="505" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -20583,7 +20563,7 @@
     <row r="507" spans="1:23" ht="244.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="19"/>
       <c r="B507" s="11" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C507" s="12">
         <v>0</v>
@@ -20644,7 +20624,7 @@
       </c>
       <c r="V507" s="26"/>
       <c r="W507" s="18" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="508" spans="1:23" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20671,7 +20651,7 @@
       <c r="U508" s="25"/>
       <c r="V508" s="26"/>
       <c r="W508" s="18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="509" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -20751,10 +20731,10 @@
     </row>
     <row r="512" spans="1:23" ht="188.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B512" s="11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C512" s="12">
         <v>0</v>
@@ -20814,10 +20794,10 @@
         <v>3</v>
       </c>
       <c r="V512" s="17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="W512" s="18" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="513" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -20843,7 +20823,7 @@
       <c r="T513" s="25"/>
       <c r="U513" s="25"/>
       <c r="V513" s="26" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="W513" s="18"/>
     </row>
@@ -20870,10 +20850,10 @@
       <c r="T514" s="25"/>
       <c r="U514" s="25"/>
       <c r="V514" s="26" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="W514" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="515" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20900,7 +20880,7 @@
       <c r="U515" s="25"/>
       <c r="V515" s="26"/>
       <c r="W515" s="43" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="516" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20931,7 +20911,7 @@
     <row r="517" spans="1:23" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="10"/>
       <c r="B517" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C517" s="12">
         <v>0</v>
@@ -20992,7 +20972,7 @@
       </c>
       <c r="V517" s="26"/>
       <c r="W517" s="18" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="518" spans="1:23" ht="207" thickBot="1" x14ac:dyDescent="0.3">
@@ -21019,7 +20999,7 @@
       <c r="U518" s="25"/>
       <c r="V518" s="26"/>
       <c r="W518" s="18" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="519" spans="1:23" ht="244.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21046,7 +21026,7 @@
       <c r="U519" s="25"/>
       <c r="V519" s="26"/>
       <c r="W519" s="18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="520" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21102,7 +21082,7 @@
     <row r="522" spans="1:23" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="19"/>
       <c r="B522" s="11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C522" s="12">
         <v>0</v>
@@ -21141,13 +21121,13 @@
         <v>26</v>
       </c>
       <c r="O522" s="15" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P522" s="15">
         <v>23</v>
       </c>
       <c r="Q522" s="15" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="R522" s="15">
         <v>20</v>
@@ -21165,7 +21145,7 @@
         <v>4</v>
       </c>
       <c r="W522" s="18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="523" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21217,7 +21197,7 @@
       <c r="U524" s="25"/>
       <c r="V524" s="26"/>
       <c r="W524" s="18" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="525" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21273,9 +21253,9 @@
     <row r="527" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="19"/>
       <c r="B527" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="C527" s="87">
+        <v>363</v>
+      </c>
+      <c r="C527" s="83">
         <v>0</v>
       </c>
       <c r="D527" s="22">
@@ -21438,7 +21418,7 @@
     <row r="532" spans="1:23" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="19"/>
       <c r="B532" s="11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C532" s="12">
         <v>0</v>
@@ -21501,7 +21481,7 @@
         <v>3</v>
       </c>
       <c r="W532" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="533" spans="1:23" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21528,7 +21508,7 @@
       <c r="U533" s="25"/>
       <c r="V533" s="26"/>
       <c r="W533" s="18" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="534" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21554,7 +21534,7 @@
       <c r="T534" s="25"/>
       <c r="U534" s="25"/>
       <c r="V534" s="26"/>
-      <c r="W534" s="88"/>
+      <c r="W534" s="84"/>
     </row>
     <row r="535" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="19"/>
@@ -21579,7 +21559,7 @@
       <c r="T535" s="25"/>
       <c r="U535" s="25"/>
       <c r="V535" s="26"/>
-      <c r="W535" s="89"/>
+      <c r="W535" s="85"/>
     </row>
     <row r="536" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="27"/>
@@ -21609,7 +21589,7 @@
     <row r="537" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="19"/>
       <c r="B537" s="11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C537" s="12">
         <v>0</v>
@@ -21776,7 +21756,7 @@
     <row r="542" spans="1:23" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="19"/>
       <c r="B542" s="11" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C542" s="12">
         <v>0</v>
@@ -21831,7 +21811,7 @@
       <c r="U542" s="16"/>
       <c r="V542" s="26"/>
       <c r="W542" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="543" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21937,18 +21917,18 @@
     <row r="547" spans="1:23" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="19"/>
       <c r="B547" s="11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C547" s="12">
         <v>0</v>
       </c>
-      <c r="D547" s="121" t="s">
-        <v>374</v>
-      </c>
-      <c r="E547" s="122"/>
-      <c r="F547" s="122"/>
-      <c r="G547" s="122"/>
-      <c r="H547" s="123"/>
+      <c r="D547" s="134" t="s">
+        <v>371</v>
+      </c>
+      <c r="E547" s="135"/>
+      <c r="F547" s="135"/>
+      <c r="G547" s="135"/>
+      <c r="H547" s="136"/>
       <c r="I547" s="14">
         <v>17</v>
       </c>
@@ -21992,7 +21972,7 @@
         <v>10</v>
       </c>
       <c r="W547" s="18" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="548" spans="1:23" ht="57" thickBot="1" x14ac:dyDescent="0.3">
@@ -22019,7 +21999,7 @@
       <c r="U548" s="25"/>
       <c r="V548" s="26"/>
       <c r="W548" s="18" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="549" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22100,7 +22080,7 @@
     <row r="552" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="19"/>
       <c r="B552" s="11" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C552" s="12">
         <v>0</v>
@@ -22265,7 +22245,7 @@
     <row r="557" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="19"/>
       <c r="B557" s="11" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C557" s="12">
         <v>0</v>
@@ -22430,7 +22410,7 @@
     <row r="562" spans="1:23" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A562" s="19"/>
       <c r="B562" s="11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C562" s="12">
         <v>0</v>
@@ -22491,7 +22471,7 @@
       </c>
       <c r="V562" s="26"/>
       <c r="W562" s="18" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="563" spans="1:23" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22518,7 +22498,7 @@
       <c r="U563" s="25"/>
       <c r="V563" s="26"/>
       <c r="W563" s="18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="564" spans="1:23" ht="244.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -22545,7 +22525,7 @@
       <c r="U564" s="25"/>
       <c r="V564" s="26"/>
       <c r="W564" s="36" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="565" spans="1:23" ht="244.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22572,7 +22552,7 @@
       <c r="U565" s="25"/>
       <c r="V565" s="26"/>
       <c r="W565" s="18" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="566" spans="1:23" ht="207" thickBot="1" x14ac:dyDescent="0.3">
@@ -22599,13 +22579,13 @@
       <c r="U566" s="33"/>
       <c r="V566" s="34"/>
       <c r="W566" s="52" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="567" spans="1:23" ht="207" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="19"/>
       <c r="B567" s="11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C567" s="12">
         <v>0</v>
@@ -22660,7 +22640,7 @@
       </c>
       <c r="V567" s="26"/>
       <c r="W567" s="18" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="568" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22766,7 +22746,7 @@
     <row r="572" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="19"/>
       <c r="B572" s="11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C572" s="12">
         <v>0</v>
@@ -22931,7 +22911,7 @@
     <row r="577" spans="1:23" ht="132" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="19"/>
       <c r="B577" s="11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C577" s="12">
         <v>0</v>
@@ -22994,7 +22974,7 @@
         <v>10</v>
       </c>
       <c r="W577" s="18" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="578" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23100,7 +23080,7 @@
     <row r="582" spans="1:23" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A582" s="19"/>
       <c r="B582" s="11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C582" s="12">
         <v>0</v>
@@ -23161,7 +23141,7 @@
       </c>
       <c r="V582" s="26"/>
       <c r="W582" s="18" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="583" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23213,7 +23193,7 @@
       <c r="U584" s="25"/>
       <c r="V584" s="26"/>
       <c r="W584" s="18" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="585" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23269,7 +23249,7 @@
     <row r="587" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="19"/>
       <c r="B587" s="11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C587" s="12">
         <v>0</v>
@@ -23433,10 +23413,10 @@
     </row>
     <row r="592" spans="1:23" ht="188.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B592" s="11" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C592" s="12">
         <v>0</v>
@@ -23497,7 +23477,7 @@
       </c>
       <c r="V592" s="26"/>
       <c r="W592" s="18" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="593" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -23548,8 +23528,8 @@
       <c r="T594" s="25"/>
       <c r="U594" s="25"/>
       <c r="V594" s="26"/>
-      <c r="W594" s="90" t="s">
-        <v>397</v>
+      <c r="W594" s="86" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="595" spans="1:23" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -23576,7 +23556,7 @@
       <c r="U595" s="25"/>
       <c r="V595" s="26"/>
       <c r="W595" s="18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="596" spans="1:23" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -23603,13 +23583,13 @@
       <c r="U596" s="33"/>
       <c r="V596" s="34"/>
       <c r="W596" s="35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="597" spans="1:23" ht="244.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="19"/>
       <c r="B597" s="11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C597" s="12">
         <v>0</v>
@@ -23672,7 +23652,7 @@
         <v>45</v>
       </c>
       <c r="W597" s="56" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="598" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23749,7 +23729,7 @@
       <c r="U600" s="25"/>
       <c r="V600" s="26"/>
       <c r="W600" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="601" spans="1:23" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -23776,13 +23756,13 @@
       <c r="U601" s="33"/>
       <c r="V601" s="34"/>
       <c r="W601" s="35" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="602" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="19"/>
       <c r="B602" s="11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C602" s="12">
         <v>0</v>
@@ -23843,7 +23823,7 @@
       </c>
       <c r="V602" s="26"/>
       <c r="W602" s="18" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="603" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -23895,7 +23875,7 @@
       <c r="U604" s="25"/>
       <c r="V604" s="26"/>
       <c r="W604" s="18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="605" spans="1:23" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -23922,7 +23902,7 @@
       <c r="U605" s="25"/>
       <c r="V605" s="26"/>
       <c r="W605" s="18" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="606" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23953,7 +23933,7 @@
     <row r="607" spans="1:23" ht="244.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="19"/>
       <c r="B607" s="11" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C607" s="12">
         <v>0</v>
@@ -24014,7 +23994,7 @@
       </c>
       <c r="V607" s="26"/>
       <c r="W607" s="18" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="608" spans="1:23" ht="207" thickBot="1" x14ac:dyDescent="0.3">
@@ -24041,7 +24021,7 @@
       <c r="U608" s="25"/>
       <c r="V608" s="26"/>
       <c r="W608" s="18" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="609" spans="1:23" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24068,7 +24048,7 @@
       <c r="U609" s="25"/>
       <c r="V609" s="26"/>
       <c r="W609" s="18" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="610" spans="1:23" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24095,7 +24075,7 @@
       <c r="U610" s="25"/>
       <c r="V610" s="26"/>
       <c r="W610" s="18" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="611" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24126,7 +24106,7 @@
     <row r="612" spans="1:23" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="19"/>
       <c r="B612" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C612" s="12">
         <v>0</v>
@@ -24177,7 +24157,7 @@
       </c>
       <c r="V612" s="26"/>
       <c r="W612" s="18" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="613" spans="1:23" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -24204,7 +24184,7 @@
       <c r="U613" s="25"/>
       <c r="V613" s="26"/>
       <c r="W613" s="18" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="614" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24285,7 +24265,7 @@
     <row r="617" spans="1:23" ht="188.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A617" s="19"/>
       <c r="B617" s="11" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C617" s="12">
         <v>0</v>
@@ -24346,7 +24326,7 @@
       </c>
       <c r="V617" s="26"/>
       <c r="W617" s="18" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="618" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24452,7 +24432,7 @@
     <row r="622" spans="1:23" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="19"/>
       <c r="B622" s="11" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C622" s="12">
         <v>0</v>
@@ -24513,7 +24493,7 @@
       </c>
       <c r="V622" s="26"/>
       <c r="W622" s="18" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="623" spans="1:23" ht="207" thickBot="1" x14ac:dyDescent="0.3">
@@ -24540,7 +24520,7 @@
       <c r="U623" s="25"/>
       <c r="V623" s="26"/>
       <c r="W623" s="18" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="624" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24621,7 +24601,7 @@
     <row r="627" spans="1:23" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A627" s="19"/>
       <c r="B627" s="11" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C627" s="12">
         <v>0</v>
@@ -24786,7 +24766,7 @@
     <row r="632" spans="1:23" ht="188.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A632" s="19"/>
       <c r="B632" s="11" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C632" s="12">
         <v>0</v>
@@ -24847,7 +24827,7 @@
       </c>
       <c r="V632" s="26"/>
       <c r="W632" s="18" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="633" spans="1:23" ht="244.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24874,7 +24854,7 @@
       <c r="U633" s="25"/>
       <c r="V633" s="26"/>
       <c r="W633" s="18" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="634" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24955,7 +24935,7 @@
     <row r="637" spans="1:23" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A637" s="19"/>
       <c r="B637" s="11" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C637" s="12">
         <v>0</v>
@@ -25110,7 +25090,7 @@
     <row r="642" spans="1:23" ht="263.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A642" s="19"/>
       <c r="B642" s="11" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C642" s="12">
         <v>0</v>
@@ -25171,7 +25151,7 @@
       </c>
       <c r="V642" s="26"/>
       <c r="W642" s="18" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="643" spans="1:23" ht="57" thickBot="1" x14ac:dyDescent="0.3">
@@ -25198,7 +25178,7 @@
       <c r="U643" s="25"/>
       <c r="V643" s="26"/>
       <c r="W643" s="18" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="644" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25278,10 +25258,10 @@
     </row>
     <row r="647" spans="1:23" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A647" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B647" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C647" s="12">
         <v>0</v>
@@ -25344,7 +25324,7 @@
         <v>6</v>
       </c>
       <c r="W647" s="18" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="648" spans="1:23" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25371,7 +25351,7 @@
       <c r="U648" s="25"/>
       <c r="V648" s="25"/>
       <c r="W648" s="18" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="649" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25423,7 +25403,7 @@
       <c r="U650" s="25"/>
       <c r="V650" s="25"/>
       <c r="W650" s="18" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="651" spans="1:23" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25450,13 +25430,13 @@
       <c r="U651" s="33"/>
       <c r="V651" s="51"/>
       <c r="W651" s="35" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="652" spans="1:23" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A652" s="19"/>
       <c r="B652" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C652" s="12">
         <v>0</v>
@@ -25495,7 +25475,7 @@
         <v>16</v>
       </c>
       <c r="O652" s="15" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="P652" s="15">
         <v>15</v>
@@ -25519,7 +25499,7 @@
         <v>30</v>
       </c>
       <c r="W652" s="18" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="653" spans="1:23" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -25546,7 +25526,7 @@
       <c r="U653" s="25"/>
       <c r="V653" s="26"/>
       <c r="W653" s="18" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="654" spans="1:23" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -25573,7 +25553,7 @@
       <c r="U654" s="25"/>
       <c r="V654" s="26"/>
       <c r="W654" s="18" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="655" spans="1:23" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -25600,7 +25580,7 @@
       <c r="U655" s="25"/>
       <c r="V655" s="26"/>
       <c r="W655" s="18" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="656" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -25627,15 +25607,15 @@
       <c r="U656" s="33"/>
       <c r="V656" s="34"/>
       <c r="W656" s="35" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="657" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A657" s="10" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B657" s="11" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C657" s="12">
         <v>0</v>
@@ -25721,7 +25701,7 @@
       <c r="U658" s="25"/>
       <c r="V658" s="26"/>
       <c r="W658" s="18" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="659" spans="1:23" ht="244.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25748,7 +25728,7 @@
       <c r="U659" s="25"/>
       <c r="V659" s="26"/>
       <c r="W659" s="18" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="660" spans="1:23" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25775,7 +25755,7 @@
       <c r="U660" s="25"/>
       <c r="V660" s="26"/>
       <c r="W660" s="18" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="661" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25806,7 +25786,7 @@
     <row r="662" spans="1:23" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A662" s="19"/>
       <c r="B662" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C662" s="12">
         <v>0</v>
@@ -25857,7 +25837,7 @@
       </c>
       <c r="V662" s="26"/>
       <c r="W662" s="18" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="663" spans="1:23" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25884,7 +25864,7 @@
       <c r="U663" s="25"/>
       <c r="V663" s="26"/>
       <c r="W663" s="18" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="664" spans="1:23" ht="207" thickBot="1" x14ac:dyDescent="0.3">
@@ -25911,7 +25891,7 @@
       <c r="U664" s="25"/>
       <c r="V664" s="26"/>
       <c r="W664" s="18" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="665" spans="1:23" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -25938,7 +25918,7 @@
       <c r="U665" s="25"/>
       <c r="V665" s="26"/>
       <c r="W665" s="18" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="666" spans="1:23" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -25965,13 +25945,13 @@
       <c r="U666" s="33"/>
       <c r="V666" s="34"/>
       <c r="W666" s="35" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="667" spans="1:23" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A667" s="19"/>
       <c r="B667" s="11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C667" s="12">
         <v>0</v>
@@ -26032,7 +26012,7 @@
       </c>
       <c r="V667" s="26"/>
       <c r="W667" s="18" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="668" spans="1:23" ht="57" thickBot="1" x14ac:dyDescent="0.3">
@@ -26059,7 +26039,7 @@
       <c r="U668" s="25"/>
       <c r="V668" s="26"/>
       <c r="W668" s="18" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="669" spans="1:23" ht="57" thickBot="1" x14ac:dyDescent="0.3">
@@ -26086,7 +26066,7 @@
       <c r="U669" s="25"/>
       <c r="V669" s="26"/>
       <c r="W669" s="18" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="670" spans="1:23" ht="57" thickBot="1" x14ac:dyDescent="0.3">
@@ -26113,7 +26093,7 @@
       <c r="U670" s="25"/>
       <c r="V670" s="26"/>
       <c r="W670" s="18" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="671" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -26140,13 +26120,13 @@
       <c r="U671" s="33"/>
       <c r="V671" s="34"/>
       <c r="W671" s="35" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="672" spans="1:23" ht="132" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A672" s="19"/>
       <c r="B672" s="11" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C672" s="12">
         <v>0</v>
@@ -26209,7 +26189,7 @@
         <v>0</v>
       </c>
       <c r="W672" s="18" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="673" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -26315,7 +26295,7 @@
     <row r="677" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A677" s="19"/>
       <c r="B677" s="11" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C677" s="12">
         <v>0</v>
@@ -26364,11 +26344,11 @@
       <c r="U677" s="16">
         <v>80</v>
       </c>
-      <c r="V677" s="91">
+      <c r="V677" s="87">
         <v>42705</v>
       </c>
       <c r="W677" s="18" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="678" spans="1:23" ht="188.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -26395,7 +26375,7 @@
       <c r="U678" s="25"/>
       <c r="V678" s="26"/>
       <c r="W678" s="18" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="679" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -26476,7 +26456,7 @@
     <row r="682" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A682" s="19"/>
       <c r="B682" s="11" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C682" s="12">
         <v>0</v>
@@ -26641,7 +26621,7 @@
     <row r="687" spans="1:23" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A687" s="19"/>
       <c r="B687" s="11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C687" s="12">
         <v>0</v>
@@ -26806,7 +26786,7 @@
     <row r="692" spans="1:23" ht="244.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A692" s="19"/>
       <c r="B692" s="11" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C692" s="12">
         <v>0</v>
@@ -26867,7 +26847,7 @@
       </c>
       <c r="V692" s="17"/>
       <c r="W692" s="18" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="693" spans="1:23" ht="188.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -26894,7 +26874,7 @@
       <c r="U693" s="25"/>
       <c r="V693" s="26"/>
       <c r="W693" s="18" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="694" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26921,7 +26901,7 @@
       <c r="U694" s="25"/>
       <c r="V694" s="26"/>
       <c r="W694" s="18" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="695" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -26976,10 +26956,10 @@
     </row>
     <row r="697" spans="1:23" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A697" s="10" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B697" s="11" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C697" s="12">
         <v>0</v>
@@ -27040,7 +27020,7 @@
       </c>
       <c r="V697" s="26"/>
       <c r="W697" s="18" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="698" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -27146,7 +27126,7 @@
     <row r="702" spans="1:23" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A702" s="19"/>
       <c r="B702" s="11" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C702" s="12">
         <v>0</v>
@@ -27310,10 +27290,10 @@
     </row>
     <row r="707" spans="1:23" ht="207" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A707" s="10" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B707" s="11" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C707" s="12">
         <v>0</v>
@@ -27374,7 +27354,7 @@
       </c>
       <c r="V707" s="26"/>
       <c r="W707" s="18" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="708" spans="1:23" ht="244.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -27401,7 +27381,7 @@
       <c r="U708" s="25"/>
       <c r="V708" s="26"/>
       <c r="W708" s="18" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="709" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -27482,7 +27462,7 @@
     <row r="712" spans="1:23" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A712" s="19"/>
       <c r="B712" s="11" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C712" s="12">
         <v>0</v>
@@ -27545,7 +27525,7 @@
         <v>12</v>
       </c>
       <c r="W712" s="18" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="713" spans="1:23" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -27572,7 +27552,7 @@
       <c r="U713" s="25"/>
       <c r="V713" s="26"/>
       <c r="W713" s="18" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="714" spans="1:23" ht="207" thickBot="1" x14ac:dyDescent="0.3">
@@ -27599,7 +27579,7 @@
       <c r="U714" s="25"/>
       <c r="V714" s="26"/>
       <c r="W714" s="18" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="715" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -27655,7 +27635,7 @@
     <row r="717" spans="1:23" ht="207" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A717" s="19"/>
       <c r="B717" s="11" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C717" s="12">
         <v>0</v>
@@ -27716,7 +27696,7 @@
       </c>
       <c r="V717" s="26"/>
       <c r="W717" s="18" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="718" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -27742,8 +27722,8 @@
       <c r="T718" s="25"/>
       <c r="U718" s="25"/>
       <c r="V718" s="26"/>
-      <c r="W718" s="92" t="s">
-        <v>484</v>
+      <c r="W718" s="88" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="719" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -27823,10 +27803,10 @@
     </row>
     <row r="722" spans="1:23" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A722" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B722" s="11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C722" s="12">
         <v>0</v>
@@ -27834,12 +27814,12 @@
       <c r="D722" s="13">
         <v>4</v>
       </c>
-      <c r="E722" s="121" t="s">
-        <v>487</v>
-      </c>
-      <c r="F722" s="122"/>
-      <c r="G722" s="122"/>
-      <c r="H722" s="123"/>
+      <c r="E722" s="134" t="s">
+        <v>484</v>
+      </c>
+      <c r="F722" s="135"/>
+      <c r="G722" s="135"/>
+      <c r="H722" s="136"/>
       <c r="I722" s="14">
         <v>30</v>
       </c>
@@ -27856,19 +27836,19 @@
         <v>18</v>
       </c>
       <c r="N722" s="15" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="O722" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="P722" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q722" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R722" s="15" t="s">
         <v>488</v>
-      </c>
-      <c r="P722" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q722" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="R722" s="15" t="s">
-        <v>491</v>
       </c>
       <c r="S722" s="16">
         <v>80</v>
@@ -27881,42 +27861,42 @@
       </c>
       <c r="V722" s="26"/>
       <c r="W722" s="18" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="723" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A723" s="19"/>
       <c r="B723" s="20"/>
       <c r="C723" s="21"/>
-      <c r="D723" s="124" t="s">
-        <v>493</v>
-      </c>
-      <c r="E723" s="125"/>
-      <c r="F723" s="125"/>
-      <c r="G723" s="125"/>
-      <c r="H723" s="126"/>
+      <c r="D723" s="137" t="s">
+        <v>490</v>
+      </c>
+      <c r="E723" s="138"/>
+      <c r="F723" s="138"/>
+      <c r="G723" s="138"/>
+      <c r="H723" s="139"/>
       <c r="I723" s="23">
         <v>27</v>
       </c>
       <c r="J723" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="K723" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="L723" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="M723" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="K723" s="23" t="s">
+      <c r="N723" s="146" t="s">
         <v>495</v>
       </c>
-      <c r="L723" s="23" t="s">
-        <v>496</v>
-      </c>
-      <c r="M723" s="23" t="s">
-        <v>497</v>
-      </c>
-      <c r="N723" s="133" t="s">
-        <v>498</v>
-      </c>
-      <c r="O723" s="134"/>
-      <c r="P723" s="134"/>
-      <c r="Q723" s="134"/>
-      <c r="R723" s="135"/>
+      <c r="O723" s="147"/>
+      <c r="P723" s="147"/>
+      <c r="Q723" s="147"/>
+      <c r="R723" s="148"/>
       <c r="S723" s="25">
         <v>72</v>
       </c>
@@ -27933,25 +27913,25 @@
       <c r="A724" s="19"/>
       <c r="B724" s="20"/>
       <c r="C724" s="21"/>
-      <c r="D724" s="127"/>
-      <c r="E724" s="128"/>
-      <c r="F724" s="128"/>
-      <c r="G724" s="128"/>
-      <c r="H724" s="129"/>
+      <c r="D724" s="140"/>
+      <c r="E724" s="141"/>
+      <c r="F724" s="141"/>
+      <c r="G724" s="141"/>
+      <c r="H724" s="142"/>
       <c r="I724" s="23">
         <v>24</v>
       </c>
       <c r="J724" s="23" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K724" s="23" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="L724" s="23" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="M724" s="23" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="N724" s="24"/>
       <c r="O724" s="24"/>
@@ -27974,39 +27954,39 @@
       <c r="A725" s="19"/>
       <c r="B725" s="20"/>
       <c r="C725" s="21"/>
-      <c r="D725" s="130"/>
-      <c r="E725" s="131"/>
-      <c r="F725" s="131"/>
-      <c r="G725" s="131"/>
-      <c r="H725" s="132"/>
+      <c r="D725" s="143"/>
+      <c r="E725" s="144"/>
+      <c r="F725" s="144"/>
+      <c r="G725" s="144"/>
+      <c r="H725" s="145"/>
       <c r="I725" s="23">
         <v>21</v>
       </c>
       <c r="J725" s="23" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K725" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="L725" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="M725" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="L725" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="M725" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="N725" s="76">
+      <c r="N725" s="72">
         <v>10</v>
       </c>
-      <c r="O725" s="76">
+      <c r="O725" s="72">
         <v>9</v>
       </c>
-      <c r="P725" s="76">
+      <c r="P725" s="72">
         <v>8</v>
       </c>
-      <c r="Q725" s="76">
+      <c r="Q725" s="72">
         <v>7</v>
       </c>
-      <c r="R725" s="76">
+      <c r="R725" s="72">
         <v>6</v>
       </c>
       <c r="S725" s="25">
@@ -28025,37 +28005,37 @@
       <c r="A726" s="27"/>
       <c r="B726" s="28"/>
       <c r="C726" s="29"/>
-      <c r="D726" s="136" t="s">
-        <v>504</v>
-      </c>
-      <c r="E726" s="137"/>
-      <c r="F726" s="137"/>
-      <c r="G726" s="138"/>
+      <c r="D726" s="106" t="s">
+        <v>501</v>
+      </c>
+      <c r="E726" s="107"/>
+      <c r="F726" s="107"/>
+      <c r="G726" s="108"/>
       <c r="H726" s="30" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="I726" s="31">
         <v>18</v>
       </c>
       <c r="J726" s="31" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K726" s="31" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L726" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="M726" s="31" t="s">
         <v>503</v>
       </c>
-      <c r="M726" s="31" t="s">
-        <v>506</v>
-      </c>
-      <c r="N726" s="139" t="s">
-        <v>507</v>
-      </c>
-      <c r="O726" s="140"/>
-      <c r="P726" s="140"/>
-      <c r="Q726" s="140"/>
-      <c r="R726" s="141"/>
+      <c r="N726" s="109" t="s">
+        <v>504</v>
+      </c>
+      <c r="O726" s="110"/>
+      <c r="P726" s="110"/>
+      <c r="Q726" s="110"/>
+      <c r="R726" s="111"/>
       <c r="S726" s="51">
         <v>48</v>
       </c>
@@ -28071,7 +28051,7 @@
     <row r="727" spans="1:23" ht="188.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A727" s="19"/>
       <c r="B727" s="20" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C727" s="12">
         <v>0</v>
@@ -28079,21 +28059,21 @@
       <c r="D727" s="22">
         <v>4</v>
       </c>
-      <c r="E727" s="142" t="s">
-        <v>487</v>
-      </c>
-      <c r="F727" s="143"/>
-      <c r="G727" s="143"/>
-      <c r="H727" s="144"/>
+      <c r="E727" s="149" t="s">
+        <v>484</v>
+      </c>
+      <c r="F727" s="150"/>
+      <c r="G727" s="150"/>
+      <c r="H727" s="151"/>
       <c r="I727" s="23">
         <v>16</v>
       </c>
-      <c r="J727" s="145" t="s">
-        <v>487</v>
-      </c>
-      <c r="K727" s="146"/>
-      <c r="L727" s="146"/>
-      <c r="M727" s="147"/>
+      <c r="J727" s="152" t="s">
+        <v>484</v>
+      </c>
+      <c r="K727" s="153"/>
+      <c r="L727" s="153"/>
+      <c r="M727" s="154"/>
       <c r="N727" s="24">
         <v>22</v>
       </c>
@@ -28120,38 +28100,38 @@
       </c>
       <c r="V727" s="26"/>
       <c r="W727" s="18" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="728" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A728" s="19"/>
       <c r="B728" s="20"/>
       <c r="C728" s="21"/>
-      <c r="D728" s="124" t="s">
-        <v>493</v>
-      </c>
-      <c r="E728" s="125"/>
-      <c r="F728" s="125"/>
-      <c r="G728" s="125"/>
-      <c r="H728" s="126"/>
-      <c r="I728" s="148" t="s">
-        <v>493</v>
-      </c>
-      <c r="J728" s="149"/>
-      <c r="K728" s="149"/>
-      <c r="L728" s="149"/>
-      <c r="M728" s="150"/>
+      <c r="D728" s="137" t="s">
+        <v>490</v>
+      </c>
+      <c r="E728" s="138"/>
+      <c r="F728" s="138"/>
+      <c r="G728" s="138"/>
+      <c r="H728" s="139"/>
+      <c r="I728" s="155" t="s">
+        <v>490</v>
+      </c>
+      <c r="J728" s="156"/>
+      <c r="K728" s="156"/>
+      <c r="L728" s="156"/>
+      <c r="M728" s="157"/>
       <c r="N728" s="24" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="O728" s="24" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="P728" s="24" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="Q728" s="24" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="R728" s="24">
         <v>9</v>
@@ -28172,27 +28152,27 @@
       <c r="A729" s="19"/>
       <c r="B729" s="20"/>
       <c r="C729" s="21"/>
-      <c r="D729" s="127"/>
-      <c r="E729" s="128"/>
-      <c r="F729" s="128"/>
-      <c r="G729" s="128"/>
-      <c r="H729" s="129"/>
-      <c r="I729" s="151"/>
-      <c r="J729" s="152"/>
-      <c r="K729" s="152"/>
-      <c r="L729" s="152"/>
-      <c r="M729" s="153"/>
+      <c r="D729" s="140"/>
+      <c r="E729" s="141"/>
+      <c r="F729" s="141"/>
+      <c r="G729" s="141"/>
+      <c r="H729" s="142"/>
+      <c r="I729" s="158"/>
+      <c r="J729" s="159"/>
+      <c r="K729" s="159"/>
+      <c r="L729" s="159"/>
+      <c r="M729" s="160"/>
       <c r="N729" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="O729" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="P729" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q729" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="O729" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="P729" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q729" s="24" t="s">
-        <v>516</v>
       </c>
       <c r="R729" s="24">
         <v>8</v>
@@ -28213,27 +28193,27 @@
       <c r="A730" s="19"/>
       <c r="B730" s="20"/>
       <c r="C730" s="21"/>
-      <c r="D730" s="130"/>
-      <c r="E730" s="131"/>
-      <c r="F730" s="131"/>
-      <c r="G730" s="131"/>
-      <c r="H730" s="132"/>
-      <c r="I730" s="154"/>
-      <c r="J730" s="155"/>
-      <c r="K730" s="155"/>
-      <c r="L730" s="155"/>
-      <c r="M730" s="156"/>
+      <c r="D730" s="143"/>
+      <c r="E730" s="144"/>
+      <c r="F730" s="144"/>
+      <c r="G730" s="144"/>
+      <c r="H730" s="145"/>
+      <c r="I730" s="161"/>
+      <c r="J730" s="162"/>
+      <c r="K730" s="162"/>
+      <c r="L730" s="162"/>
+      <c r="M730" s="163"/>
       <c r="N730" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="O730" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="P730" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q730" s="24" t="s">
         <v>517</v>
-      </c>
-      <c r="O730" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="P730" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q730" s="24" t="s">
-        <v>520</v>
       </c>
       <c r="R730" s="24">
         <v>7</v>
@@ -28254,35 +28234,35 @@
       <c r="A731" s="27"/>
       <c r="B731" s="28"/>
       <c r="C731" s="29"/>
-      <c r="D731" s="136" t="s">
-        <v>504</v>
-      </c>
-      <c r="E731" s="137"/>
-      <c r="F731" s="137"/>
-      <c r="G731" s="138"/>
+      <c r="D731" s="106" t="s">
+        <v>501</v>
+      </c>
+      <c r="E731" s="107"/>
+      <c r="F731" s="107"/>
+      <c r="G731" s="108"/>
       <c r="H731" s="30" t="s">
-        <v>505</v>
-      </c>
-      <c r="I731" s="157" t="s">
-        <v>521</v>
-      </c>
-      <c r="J731" s="158"/>
-      <c r="K731" s="158"/>
-      <c r="L731" s="159"/>
+        <v>502</v>
+      </c>
+      <c r="I731" s="164" t="s">
+        <v>518</v>
+      </c>
+      <c r="J731" s="165"/>
+      <c r="K731" s="165"/>
+      <c r="L731" s="166"/>
       <c r="M731" s="31">
         <v>6</v>
       </c>
       <c r="N731" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="O731" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="P731" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q731" s="32" t="s">
         <v>522</v>
-      </c>
-      <c r="O731" s="32" t="s">
-        <v>523</v>
-      </c>
-      <c r="P731" s="32" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q731" s="32" t="s">
-        <v>525</v>
       </c>
       <c r="R731" s="32">
         <v>6</v>
@@ -28302,7 +28282,7 @@
     <row r="732" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A732" s="19"/>
       <c r="B732" s="11" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C732" s="12">
         <v>0</v>
@@ -28467,7 +28447,7 @@
     <row r="737" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A737" s="19"/>
       <c r="B737" s="11" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C737" s="12">
         <v>0</v>
@@ -28499,8 +28479,8 @@
       <c r="L737" s="14">
         <v>0</v>
       </c>
-      <c r="M737" s="93" t="s">
-        <v>528</v>
+      <c r="M737" s="89" t="s">
+        <v>525</v>
       </c>
       <c r="N737" s="15">
         <v>12</v>
@@ -28529,7 +28509,7 @@
       <c r="V737" s="17">
         <v>20</v>
       </c>
-      <c r="W737" s="94" t="s">
+      <c r="W737" s="90" t="s">
         <v>48</v>
       </c>
     </row>
@@ -28546,7 +28526,7 @@
       <c r="J738" s="23"/>
       <c r="K738" s="23"/>
       <c r="L738" s="23"/>
-      <c r="M738" s="95"/>
+      <c r="M738" s="91"/>
       <c r="N738" s="24"/>
       <c r="O738" s="24"/>
       <c r="P738" s="24"/>
@@ -28558,8 +28538,8 @@
       <c r="V738" s="26">
         <v>8</v>
       </c>
-      <c r="W738" s="94" t="s">
-        <v>529</v>
+      <c r="W738" s="90" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="739" spans="1:23" ht="207.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28575,7 +28555,7 @@
       <c r="J739" s="23"/>
       <c r="K739" s="23"/>
       <c r="L739" s="23"/>
-      <c r="M739" s="95"/>
+      <c r="M739" s="91"/>
       <c r="N739" s="24"/>
       <c r="O739" s="24"/>
       <c r="P739" s="24"/>
@@ -28585,8 +28565,8 @@
       <c r="T739" s="25"/>
       <c r="U739" s="25"/>
       <c r="V739" s="26"/>
-      <c r="W739" s="96" t="s">
-        <v>530</v>
+      <c r="W739" s="92" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="740" spans="1:23" ht="156" thickBot="1" x14ac:dyDescent="0.3">
@@ -28602,7 +28582,7 @@
       <c r="J740" s="23"/>
       <c r="K740" s="23"/>
       <c r="L740" s="23"/>
-      <c r="M740" s="95"/>
+      <c r="M740" s="91"/>
       <c r="N740" s="24"/>
       <c r="O740" s="24"/>
       <c r="P740" s="24"/>
@@ -28612,8 +28592,8 @@
       <c r="T740" s="25"/>
       <c r="U740" s="25"/>
       <c r="V740" s="26"/>
-      <c r="W740" s="96" t="s">
-        <v>531</v>
+      <c r="W740" s="92" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="741" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28629,7 +28609,7 @@
       <c r="J741" s="31"/>
       <c r="K741" s="31"/>
       <c r="L741" s="31"/>
-      <c r="M741" s="97"/>
+      <c r="M741" s="93"/>
       <c r="N741" s="32"/>
       <c r="O741" s="32"/>
       <c r="P741" s="32"/>
@@ -28643,10 +28623,10 @@
     </row>
     <row r="742" spans="1:23" ht="188.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A742" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B742" s="11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C742" s="12">
         <v>0</v>
@@ -28709,7 +28689,7 @@
         <v>300</v>
       </c>
       <c r="W742" s="18" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="743" spans="1:23" ht="132" thickBot="1" x14ac:dyDescent="0.3">
@@ -28736,7 +28716,7 @@
       <c r="U743" s="25"/>
       <c r="V743" s="26"/>
       <c r="W743" s="18" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="744" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -28817,7 +28797,7 @@
     <row r="747" spans="1:23" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A747" s="19"/>
       <c r="B747" s="11" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C747" s="12">
         <v>0</v>
@@ -28841,13 +28821,13 @@
         <v>20</v>
       </c>
       <c r="J747" s="14" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="K747" s="14">
         <v>17</v>
       </c>
       <c r="L747" s="14" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M747" s="14">
         <v>14</v>
@@ -28880,7 +28860,7 @@
         <v>10</v>
       </c>
       <c r="W747" s="18" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="748" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -28986,7 +28966,7 @@
     <row r="752" spans="1:23" ht="244.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A752" s="19"/>
       <c r="B752" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C752" s="12">
         <v>0</v>
@@ -29049,7 +29029,7 @@
         <v>12</v>
       </c>
       <c r="W752" s="18" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="753" spans="1:23" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -29076,7 +29056,7 @@
       <c r="U753" s="25"/>
       <c r="V753" s="26"/>
       <c r="W753" s="18" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="754" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -29157,7 +29137,7 @@
     <row r="757" spans="1:23" ht="207" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A757" s="19"/>
       <c r="B757" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C757" s="12">
         <v>0</v>
@@ -29220,7 +29200,7 @@
         <v>120</v>
       </c>
       <c r="W757" s="18" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="758" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -29326,7 +29306,7 @@
     <row r="762" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A762" s="19"/>
       <c r="B762" s="11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C762" s="12">
         <v>0</v>
@@ -29365,13 +29345,13 @@
         <v>20</v>
       </c>
       <c r="O762" s="15" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="P762" s="15">
         <v>17</v>
       </c>
       <c r="Q762" s="15" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="R762" s="15">
         <v>14</v>
@@ -29491,7 +29471,7 @@
     <row r="767" spans="1:23" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A767" s="19"/>
       <c r="B767" s="11" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C767" s="12">
         <v>0</v>
@@ -29550,11 +29530,11 @@
       <c r="U767" s="16">
         <v>90</v>
       </c>
-      <c r="V767" s="98">
+      <c r="V767" s="94">
         <v>44452</v>
       </c>
       <c r="W767" s="18" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="768" spans="1:23" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -29581,7 +29561,7 @@
       <c r="U768" s="25"/>
       <c r="V768" s="26"/>
       <c r="W768" s="18" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="769" spans="1:23" ht="188.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -29608,7 +29588,7 @@
       <c r="U769" s="25"/>
       <c r="V769" s="26"/>
       <c r="W769" s="18" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="770" spans="1:23" ht="207" thickBot="1" x14ac:dyDescent="0.3">
@@ -29635,7 +29615,7 @@
       <c r="U770" s="25"/>
       <c r="V770" s="26"/>
       <c r="W770" s="18" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="771" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -29666,7 +29646,7 @@
     <row r="772" spans="1:23" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A772" s="19"/>
       <c r="B772" s="11" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C772" s="12">
         <v>0</v>
@@ -29829,9 +29809,9 @@
       <c r="W776" s="35"/>
     </row>
     <row r="777" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A777" s="162"/>
+      <c r="A777" s="97"/>
       <c r="B777" s="11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C777" s="12">
         <v>0</v>
@@ -29891,10 +29871,10 @@
         <v>80</v>
       </c>
       <c r="V777" s="17"/>
-      <c r="W777" s="162"/>
+      <c r="W777" s="97"/>
     </row>
     <row r="778" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A778" s="162"/>
+      <c r="A778" s="97"/>
       <c r="B778" s="20"/>
       <c r="C778" s="21"/>
       <c r="D778" s="22"/>
@@ -29916,10 +29896,10 @@
       <c r="T778" s="25"/>
       <c r="U778" s="25"/>
       <c r="V778" s="26"/>
-      <c r="W778" s="162"/>
+      <c r="W778" s="97"/>
     </row>
     <row r="779" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A779" s="162"/>
+      <c r="A779" s="97"/>
       <c r="B779" s="20"/>
       <c r="C779" s="21"/>
       <c r="D779" s="22"/>
@@ -29941,10 +29921,10 @@
       <c r="T779" s="25"/>
       <c r="U779" s="25"/>
       <c r="V779" s="26"/>
-      <c r="W779" s="162"/>
+      <c r="W779" s="97"/>
     </row>
     <row r="780" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A780" s="162"/>
+      <c r="A780" s="97"/>
       <c r="B780" s="20"/>
       <c r="C780" s="21"/>
       <c r="D780" s="22"/>
@@ -29966,10 +29946,10 @@
       <c r="T780" s="25"/>
       <c r="U780" s="25"/>
       <c r="V780" s="26"/>
-      <c r="W780" s="162"/>
+      <c r="W780" s="97"/>
     </row>
     <row r="781" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A781" s="164"/>
+      <c r="A781" s="99"/>
       <c r="B781" s="28"/>
       <c r="C781" s="29"/>
       <c r="D781" s="30"/>
@@ -29991,12 +29971,12 @@
       <c r="T781" s="51"/>
       <c r="U781" s="51"/>
       <c r="V781" s="34"/>
-      <c r="W781" s="162"/>
+      <c r="W781" s="97"/>
     </row>
     <row r="782" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A782" s="19"/>
       <c r="B782" s="11" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C782" s="12">
         <v>0</v>
@@ -30056,7 +30036,7 @@
         <v>80</v>
       </c>
       <c r="V782" s="17"/>
-      <c r="W782" s="162"/>
+      <c r="W782" s="97"/>
     </row>
     <row r="783" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A783" s="19"/>
@@ -30081,7 +30061,7 @@
       <c r="T783" s="25"/>
       <c r="U783" s="25"/>
       <c r="V783" s="26"/>
-      <c r="W783" s="162"/>
+      <c r="W783" s="97"/>
     </row>
     <row r="784" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A784" s="19"/>
@@ -30106,7 +30086,7 @@
       <c r="T784" s="25"/>
       <c r="U784" s="25"/>
       <c r="V784" s="26"/>
-      <c r="W784" s="162"/>
+      <c r="W784" s="97"/>
     </row>
     <row r="785" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A785" s="19"/>
@@ -30131,7 +30111,7 @@
       <c r="T785" s="25"/>
       <c r="U785" s="25"/>
       <c r="V785" s="26"/>
-      <c r="W785" s="162"/>
+      <c r="W785" s="97"/>
     </row>
     <row r="786" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A786" s="27"/>
@@ -30156,12 +30136,12 @@
       <c r="T786" s="51"/>
       <c r="U786" s="51"/>
       <c r="V786" s="34"/>
-      <c r="W786" s="162"/>
+      <c r="W786" s="97"/>
     </row>
     <row r="787" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A787" s="19"/>
       <c r="B787" s="11" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C787" s="12">
         <v>0</v>
@@ -30221,7 +30201,7 @@
         <v>110</v>
       </c>
       <c r="V787" s="17"/>
-      <c r="W787" s="162"/>
+      <c r="W787" s="97"/>
     </row>
     <row r="788" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A788" s="19"/>
@@ -30246,7 +30226,7 @@
       <c r="T788" s="25"/>
       <c r="U788" s="25"/>
       <c r="V788" s="26"/>
-      <c r="W788" s="162"/>
+      <c r="W788" s="97"/>
     </row>
     <row r="789" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A789" s="19"/>
@@ -30271,7 +30251,7 @@
       <c r="T789" s="25"/>
       <c r="U789" s="25"/>
       <c r="V789" s="26"/>
-      <c r="W789" s="162"/>
+      <c r="W789" s="97"/>
     </row>
     <row r="790" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A790" s="19"/>
@@ -30296,7 +30276,7 @@
       <c r="T790" s="25"/>
       <c r="U790" s="25"/>
       <c r="V790" s="26"/>
-      <c r="W790" s="162"/>
+      <c r="W790" s="97"/>
     </row>
     <row r="791" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A791" s="27"/>
@@ -30321,74 +30301,74 @@
       <c r="T791" s="51"/>
       <c r="U791" s="51"/>
       <c r="V791" s="34"/>
-      <c r="W791" s="162"/>
+      <c r="W791" s="97"/>
     </row>
     <row r="792" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A792" s="19"/>
       <c r="B792" s="11" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C792" s="12">
         <v>0</v>
       </c>
       <c r="D792" s="13" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E792" s="13" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F792" s="13" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G792" s="13" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H792" s="13" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I792" s="14" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="J792" s="14" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="K792" s="14" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="L792" s="14" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="M792" s="14" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="N792" s="15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="O792" s="15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="P792" s="15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="Q792" s="15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="R792" s="15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="S792" s="16" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="T792" s="16" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="U792" s="16" t="s">
-        <v>568</v>
-      </c>
-      <c r="V792" s="163" t="s">
-        <v>568</v>
-      </c>
-      <c r="W792" s="162"/>
+        <v>565</v>
+      </c>
+      <c r="V792" s="98" t="s">
+        <v>565</v>
+      </c>
+      <c r="W792" s="97"/>
     </row>
     <row r="793" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A793" s="19"/>
@@ -30412,8 +30392,8 @@
       <c r="S793" s="25"/>
       <c r="T793" s="25"/>
       <c r="U793" s="25"/>
-      <c r="V793" s="163"/>
-      <c r="W793" s="162"/>
+      <c r="V793" s="98"/>
+      <c r="W793" s="97"/>
     </row>
     <row r="794" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A794" s="19"/>
@@ -30437,8 +30417,8 @@
       <c r="S794" s="25"/>
       <c r="T794" s="25"/>
       <c r="U794" s="25"/>
-      <c r="V794" s="163"/>
-      <c r="W794" s="162"/>
+      <c r="V794" s="98"/>
+      <c r="W794" s="97"/>
     </row>
     <row r="795" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A795" s="19"/>
@@ -30462,12 +30442,12 @@
       <c r="S795" s="25"/>
       <c r="T795" s="25"/>
       <c r="U795" s="25"/>
-      <c r="V795" s="163"/>
-      <c r="W795" s="162"/>
+      <c r="V795" s="98"/>
+      <c r="W795" s="97"/>
     </row>
     <row r="796" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A796" s="27"/>
-      <c r="B796" s="20"/>
+      <c r="B796" s="28"/>
       <c r="C796" s="29"/>
       <c r="D796" s="30"/>
       <c r="E796" s="30"/>
@@ -30487,36 +30467,80 @@
       <c r="S796" s="51"/>
       <c r="T796" s="51"/>
       <c r="U796" s="51"/>
-      <c r="V796" s="84"/>
-      <c r="W796" s="162"/>
-    </row>
-    <row r="797" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A797" s="162"/>
-      <c r="B797" s="20"/>
-      <c r="C797" s="21"/>
-      <c r="D797" s="22"/>
-      <c r="E797" s="22"/>
-      <c r="F797" s="22"/>
-      <c r="G797" s="22"/>
-      <c r="H797" s="22"/>
-      <c r="I797" s="23"/>
-      <c r="J797" s="23"/>
-      <c r="K797" s="23"/>
-      <c r="L797" s="23"/>
-      <c r="M797" s="23"/>
-      <c r="N797" s="24"/>
-      <c r="O797" s="24"/>
-      <c r="P797" s="24"/>
-      <c r="Q797" s="24"/>
-      <c r="R797" s="24"/>
-      <c r="S797" s="25"/>
-      <c r="T797" s="25"/>
-      <c r="U797" s="25"/>
-      <c r="V797" s="163"/>
-      <c r="W797" s="162"/>
-    </row>
-    <row r="798" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A798" s="162"/>
+      <c r="V796" s="80"/>
+      <c r="W796" s="99"/>
+    </row>
+    <row r="797" spans="1:23" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A797" s="19"/>
+      <c r="B797" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C797" s="12">
+        <v>0</v>
+      </c>
+      <c r="D797" s="13">
+        <v>8</v>
+      </c>
+      <c r="E797" s="13">
+        <v>7</v>
+      </c>
+      <c r="F797" s="13">
+        <v>6</v>
+      </c>
+      <c r="G797" s="13">
+        <v>5</v>
+      </c>
+      <c r="H797" s="13">
+        <v>4</v>
+      </c>
+      <c r="I797" s="14">
+        <v>14</v>
+      </c>
+      <c r="J797" s="14">
+        <v>12</v>
+      </c>
+      <c r="K797" s="14">
+        <v>10</v>
+      </c>
+      <c r="L797" s="14">
+        <v>8</v>
+      </c>
+      <c r="M797" s="14">
+        <v>6</v>
+      </c>
+      <c r="N797" s="15">
+        <v>10</v>
+      </c>
+      <c r="O797" s="15">
+        <v>9</v>
+      </c>
+      <c r="P797" s="15">
+        <v>8</v>
+      </c>
+      <c r="Q797" s="15">
+        <v>7</v>
+      </c>
+      <c r="R797" s="15">
+        <v>6</v>
+      </c>
+      <c r="S797" s="16">
+        <v>120</v>
+      </c>
+      <c r="T797" s="16">
+        <v>120</v>
+      </c>
+      <c r="U797" s="16">
+        <v>120</v>
+      </c>
+      <c r="V797" s="17">
+        <v>6</v>
+      </c>
+      <c r="W797" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="798" spans="1:23" ht="132" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A798" s="19"/>
       <c r="B798" s="20"/>
       <c r="C798" s="21"/>
       <c r="D798" s="22"/>
@@ -30537,11 +30561,13 @@
       <c r="S798" s="25"/>
       <c r="T798" s="25"/>
       <c r="U798" s="25"/>
-      <c r="V798" s="163"/>
-      <c r="W798" s="162"/>
-    </row>
-    <row r="799" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A799" s="162"/>
+      <c r="V798" s="26"/>
+      <c r="W798" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="799" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A799" s="19"/>
       <c r="B799" s="20"/>
       <c r="C799" s="21"/>
       <c r="D799" s="22"/>
@@ -30562,11 +30588,11 @@
       <c r="S799" s="25"/>
       <c r="T799" s="25"/>
       <c r="U799" s="25"/>
-      <c r="V799" s="163"/>
-      <c r="W799" s="162"/>
-    </row>
-    <row r="800" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A800" s="162"/>
+      <c r="V799" s="26"/>
+      <c r="W799" s="18"/>
+    </row>
+    <row r="800" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A800" s="19"/>
       <c r="B800" s="20"/>
       <c r="C800" s="21"/>
       <c r="D800" s="22"/>
@@ -30587,36 +30613,36 @@
       <c r="S800" s="25"/>
       <c r="T800" s="25"/>
       <c r="U800" s="25"/>
-      <c r="V800" s="163"/>
-      <c r="W800" s="162"/>
-    </row>
-    <row r="801" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A801" s="162"/>
-      <c r="B801" s="20"/>
-      <c r="C801" s="21"/>
-      <c r="D801" s="22"/>
-      <c r="E801" s="22"/>
-      <c r="F801" s="22"/>
-      <c r="G801" s="22"/>
-      <c r="H801" s="22"/>
-      <c r="I801" s="23"/>
-      <c r="J801" s="23"/>
-      <c r="K801" s="23"/>
-      <c r="L801" s="23"/>
-      <c r="M801" s="23"/>
-      <c r="N801" s="24"/>
-      <c r="O801" s="24"/>
-      <c r="P801" s="24"/>
-      <c r="Q801" s="24"/>
-      <c r="R801" s="24"/>
-      <c r="S801" s="25"/>
-      <c r="T801" s="25"/>
-      <c r="U801" s="25"/>
-      <c r="V801" s="163"/>
-      <c r="W801" s="162"/>
+      <c r="V800" s="26"/>
+      <c r="W800" s="18"/>
+    </row>
+    <row r="801" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A801" s="27"/>
+      <c r="B801" s="28"/>
+      <c r="C801" s="29"/>
+      <c r="D801" s="30"/>
+      <c r="E801" s="30"/>
+      <c r="F801" s="30"/>
+      <c r="G801" s="30"/>
+      <c r="H801" s="30"/>
+      <c r="I801" s="31"/>
+      <c r="J801" s="31"/>
+      <c r="K801" s="31"/>
+      <c r="L801" s="31"/>
+      <c r="M801" s="31"/>
+      <c r="N801" s="32"/>
+      <c r="O801" s="32"/>
+      <c r="P801" s="32"/>
+      <c r="Q801" s="32"/>
+      <c r="R801" s="32"/>
+      <c r="S801" s="51"/>
+      <c r="T801" s="51"/>
+      <c r="U801" s="51"/>
+      <c r="V801" s="34"/>
+      <c r="W801" s="35"/>
     </row>
     <row r="802" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A802" s="162"/>
+      <c r="A802" s="97"/>
       <c r="B802" s="20"/>
       <c r="C802" s="21"/>
       <c r="D802" s="22"/>
@@ -30638,10 +30664,10 @@
       <c r="T802" s="25"/>
       <c r="U802" s="25"/>
       <c r="V802" s="26"/>
-      <c r="W802" s="162"/>
+      <c r="W802" s="97"/>
     </row>
     <row r="803" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A803" s="162"/>
+      <c r="A803" s="97"/>
       <c r="B803" s="20"/>
       <c r="C803" s="21"/>
       <c r="D803" s="22"/>
@@ -30663,10 +30689,10 @@
       <c r="T803" s="25"/>
       <c r="U803" s="25"/>
       <c r="V803" s="26"/>
-      <c r="W803" s="162"/>
+      <c r="W803" s="97"/>
     </row>
     <row r="804" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A804" s="162"/>
+      <c r="A804" s="97"/>
       <c r="B804" s="20"/>
       <c r="C804" s="21"/>
       <c r="D804" s="22"/>
@@ -30688,10 +30714,10 @@
       <c r="T804" s="25"/>
       <c r="U804" s="25"/>
       <c r="V804" s="26"/>
-      <c r="W804" s="162"/>
+      <c r="W804" s="97"/>
     </row>
     <row r="805" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A805" s="162"/>
+      <c r="A805" s="97"/>
       <c r="B805" s="20"/>
       <c r="C805" s="21"/>
       <c r="D805" s="22"/>
@@ -30713,10 +30739,10 @@
       <c r="T805" s="25"/>
       <c r="U805" s="25"/>
       <c r="V805" s="26"/>
-      <c r="W805" s="162"/>
+      <c r="W805" s="97"/>
     </row>
     <row r="806" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A806" s="162"/>
+      <c r="A806" s="97"/>
       <c r="B806" s="20"/>
       <c r="C806" s="21"/>
       <c r="D806" s="22"/>
@@ -30738,10 +30764,10 @@
       <c r="T806" s="25"/>
       <c r="U806" s="25"/>
       <c r="V806" s="26"/>
-      <c r="W806" s="162"/>
+      <c r="W806" s="97"/>
     </row>
     <row r="807" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A807" s="162"/>
+      <c r="A807" s="97"/>
       <c r="B807" s="20"/>
       <c r="C807" s="21"/>
       <c r="D807" s="22"/>
@@ -30763,10 +30789,10 @@
       <c r="T807" s="25"/>
       <c r="U807" s="25"/>
       <c r="V807" s="26"/>
-      <c r="W807" s="162"/>
+      <c r="W807" s="97"/>
     </row>
     <row r="808" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A808" s="162"/>
+      <c r="A808" s="97"/>
       <c r="B808" s="20"/>
       <c r="C808" s="21"/>
       <c r="D808" s="22"/>
@@ -30788,10 +30814,10 @@
       <c r="T808" s="25"/>
       <c r="U808" s="25"/>
       <c r="V808" s="26"/>
-      <c r="W808" s="162"/>
+      <c r="W808" s="97"/>
     </row>
     <row r="809" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A809" s="162"/>
+      <c r="A809" s="97"/>
       <c r="B809" s="20"/>
       <c r="C809" s="21"/>
       <c r="D809" s="22"/>
@@ -30813,10 +30839,10 @@
       <c r="T809" s="25"/>
       <c r="U809" s="25"/>
       <c r="V809" s="26"/>
-      <c r="W809" s="162"/>
+      <c r="W809" s="97"/>
     </row>
     <row r="810" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A810" s="162"/>
+      <c r="A810" s="97"/>
       <c r="B810" s="20"/>
       <c r="C810" s="21"/>
       <c r="D810" s="22"/>
@@ -30838,10 +30864,10 @@
       <c r="T810" s="25"/>
       <c r="U810" s="25"/>
       <c r="V810" s="26"/>
-      <c r="W810" s="162"/>
+      <c r="W810" s="97"/>
     </row>
     <row r="811" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A811" s="162"/>
+      <c r="A811" s="97"/>
       <c r="B811" s="20"/>
       <c r="C811" s="21"/>
       <c r="D811" s="22"/>
@@ -30863,10 +30889,10 @@
       <c r="T811" s="25"/>
       <c r="U811" s="25"/>
       <c r="V811" s="26"/>
-      <c r="W811" s="162"/>
+      <c r="W811" s="97"/>
     </row>
     <row r="812" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A812" s="162"/>
+      <c r="A812" s="97"/>
       <c r="B812" s="20"/>
       <c r="C812" s="21"/>
       <c r="D812" s="22"/>
@@ -30888,10 +30914,10 @@
       <c r="T812" s="25"/>
       <c r="U812" s="25"/>
       <c r="V812" s="26"/>
-      <c r="W812" s="162"/>
+      <c r="W812" s="97"/>
     </row>
     <row r="813" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A813" s="162"/>
+      <c r="A813" s="97"/>
       <c r="B813" s="20"/>
       <c r="C813" s="21"/>
       <c r="D813" s="22"/>
@@ -30913,10 +30939,10 @@
       <c r="T813" s="25"/>
       <c r="U813" s="25"/>
       <c r="V813" s="26"/>
-      <c r="W813" s="162"/>
+      <c r="W813" s="97"/>
     </row>
     <row r="814" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A814" s="162"/>
+      <c r="A814" s="97"/>
       <c r="B814" s="20"/>
       <c r="C814" s="21"/>
       <c r="D814" s="22"/>
@@ -30938,10 +30964,10 @@
       <c r="T814" s="25"/>
       <c r="U814" s="25"/>
       <c r="V814" s="26"/>
-      <c r="W814" s="162"/>
+      <c r="W814" s="97"/>
     </row>
     <row r="815" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A815" s="162"/>
+      <c r="A815" s="97"/>
       <c r="B815" s="20"/>
       <c r="C815" s="21"/>
       <c r="D815" s="22"/>
@@ -30963,10 +30989,10 @@
       <c r="T815" s="25"/>
       <c r="U815" s="25"/>
       <c r="V815" s="26"/>
-      <c r="W815" s="162"/>
+      <c r="W815" s="97"/>
     </row>
     <row r="816" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A816" s="162"/>
+      <c r="A816" s="97"/>
       <c r="B816" s="20"/>
       <c r="C816" s="21"/>
       <c r="D816" s="22"/>
@@ -30988,10 +31014,10 @@
       <c r="T816" s="25"/>
       <c r="U816" s="25"/>
       <c r="V816" s="26"/>
-      <c r="W816" s="162"/>
+      <c r="W816" s="97"/>
     </row>
     <row r="817" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A817" s="162"/>
+      <c r="A817" s="97"/>
       <c r="B817" s="20"/>
       <c r="C817" s="21"/>
       <c r="D817" s="22"/>
@@ -31013,10 +31039,10 @@
       <c r="T817" s="25"/>
       <c r="U817" s="25"/>
       <c r="V817" s="26"/>
-      <c r="W817" s="162"/>
+      <c r="W817" s="97"/>
     </row>
     <row r="818" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A818" s="162"/>
+      <c r="A818" s="97"/>
       <c r="B818" s="20"/>
       <c r="C818" s="21"/>
       <c r="D818" s="22"/>
@@ -31038,10 +31064,10 @@
       <c r="T818" s="25"/>
       <c r="U818" s="25"/>
       <c r="V818" s="26"/>
-      <c r="W818" s="162"/>
+      <c r="W818" s="97"/>
     </row>
     <row r="819" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A819" s="162"/>
+      <c r="A819" s="97"/>
       <c r="B819" s="20"/>
       <c r="C819" s="21"/>
       <c r="D819" s="22"/>
@@ -31063,10 +31089,10 @@
       <c r="T819" s="25"/>
       <c r="U819" s="25"/>
       <c r="V819" s="26"/>
-      <c r="W819" s="162"/>
+      <c r="W819" s="97"/>
     </row>
     <row r="820" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A820" s="162"/>
+      <c r="A820" s="97"/>
       <c r="B820" s="20"/>
       <c r="C820" s="21"/>
       <c r="D820" s="22"/>
@@ -31088,10 +31114,10 @@
       <c r="T820" s="25"/>
       <c r="U820" s="25"/>
       <c r="V820" s="26"/>
-      <c r="W820" s="162"/>
+      <c r="W820" s="97"/>
     </row>
     <row r="821" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A821" s="162"/>
+      <c r="A821" s="97"/>
       <c r="B821" s="20"/>
       <c r="C821" s="21"/>
       <c r="D821" s="22"/>
@@ -31113,10 +31139,10 @@
       <c r="T821" s="25"/>
       <c r="U821" s="25"/>
       <c r="V821" s="26"/>
-      <c r="W821" s="162"/>
+      <c r="W821" s="97"/>
     </row>
     <row r="822" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A822" s="162"/>
+      <c r="A822" s="97"/>
       <c r="B822" s="20"/>
       <c r="C822" s="21"/>
       <c r="D822" s="22"/>
@@ -31138,10 +31164,10 @@
       <c r="T822" s="25"/>
       <c r="U822" s="25"/>
       <c r="V822" s="26"/>
-      <c r="W822" s="162"/>
+      <c r="W822" s="97"/>
     </row>
     <row r="823" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A823" s="162"/>
+      <c r="A823" s="97"/>
       <c r="B823" s="20"/>
       <c r="C823" s="21"/>
       <c r="D823" s="22"/>
@@ -31163,10 +31189,10 @@
       <c r="T823" s="25"/>
       <c r="U823" s="25"/>
       <c r="V823" s="26"/>
-      <c r="W823" s="162"/>
+      <c r="W823" s="97"/>
     </row>
     <row r="824" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A824" s="162"/>
+      <c r="A824" s="97"/>
       <c r="B824" s="20"/>
       <c r="C824" s="21"/>
       <c r="D824" s="22"/>
@@ -31188,10 +31214,10 @@
       <c r="T824" s="25"/>
       <c r="U824" s="25"/>
       <c r="V824" s="26"/>
-      <c r="W824" s="162"/>
+      <c r="W824" s="97"/>
     </row>
     <row r="825" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A825" s="162"/>
+      <c r="A825" s="97"/>
       <c r="B825" s="20"/>
       <c r="C825" s="21"/>
       <c r="D825" s="22"/>
@@ -31213,10 +31239,10 @@
       <c r="T825" s="25"/>
       <c r="U825" s="25"/>
       <c r="V825" s="26"/>
-      <c r="W825" s="162"/>
+      <c r="W825" s="97"/>
     </row>
     <row r="826" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A826" s="162"/>
+      <c r="A826" s="97"/>
       <c r="B826" s="20"/>
       <c r="C826" s="21"/>
       <c r="D826" s="22"/>
@@ -31238,10 +31264,10 @@
       <c r="T826" s="25"/>
       <c r="U826" s="25"/>
       <c r="V826" s="26"/>
-      <c r="W826" s="162"/>
+      <c r="W826" s="97"/>
     </row>
     <row r="827" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A827" s="162"/>
+      <c r="A827" s="97"/>
       <c r="B827" s="20"/>
       <c r="C827" s="21"/>
       <c r="D827" s="22"/>
@@ -31263,10 +31289,10 @@
       <c r="T827" s="25"/>
       <c r="U827" s="25"/>
       <c r="V827" s="26"/>
-      <c r="W827" s="162"/>
+      <c r="W827" s="97"/>
     </row>
     <row r="828" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A828" s="162"/>
+      <c r="A828" s="97"/>
       <c r="B828" s="20"/>
       <c r="C828" s="21"/>
       <c r="D828" s="22"/>
@@ -31288,10 +31314,10 @@
       <c r="T828" s="25"/>
       <c r="U828" s="25"/>
       <c r="V828" s="26"/>
-      <c r="W828" s="162"/>
+      <c r="W828" s="97"/>
     </row>
     <row r="829" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A829" s="162"/>
+      <c r="A829" s="97"/>
       <c r="B829" s="20"/>
       <c r="C829" s="21"/>
       <c r="D829" s="22"/>
@@ -31313,10 +31339,10 @@
       <c r="T829" s="25"/>
       <c r="U829" s="25"/>
       <c r="V829" s="26"/>
-      <c r="W829" s="162"/>
+      <c r="W829" s="97"/>
     </row>
     <row r="830" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A830" s="162"/>
+      <c r="A830" s="97"/>
       <c r="B830" s="20"/>
       <c r="C830" s="21"/>
       <c r="D830" s="22"/>
@@ -31338,10 +31364,10 @@
       <c r="T830" s="25"/>
       <c r="U830" s="25"/>
       <c r="V830" s="26"/>
-      <c r="W830" s="162"/>
+      <c r="W830" s="97"/>
     </row>
     <row r="831" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A831" s="162"/>
+      <c r="A831" s="97"/>
       <c r="B831" s="20"/>
       <c r="C831" s="21"/>
       <c r="D831" s="22"/>
@@ -31363,10 +31389,10 @@
       <c r="T831" s="25"/>
       <c r="U831" s="25"/>
       <c r="V831" s="26"/>
-      <c r="W831" s="162"/>
+      <c r="W831" s="97"/>
     </row>
     <row r="832" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A832" s="162"/>
+      <c r="A832" s="97"/>
       <c r="B832" s="20"/>
       <c r="C832" s="21"/>
       <c r="D832" s="22"/>
@@ -31388,10 +31414,10 @@
       <c r="T832" s="25"/>
       <c r="U832" s="25"/>
       <c r="V832" s="26"/>
-      <c r="W832" s="162"/>
+      <c r="W832" s="97"/>
     </row>
     <row r="833" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A833" s="162"/>
+      <c r="A833" s="97"/>
       <c r="B833" s="20"/>
       <c r="C833" s="21"/>
       <c r="D833" s="22"/>
@@ -31413,10 +31439,10 @@
       <c r="T833" s="25"/>
       <c r="U833" s="25"/>
       <c r="V833" s="26"/>
-      <c r="W833" s="162"/>
+      <c r="W833" s="97"/>
     </row>
     <row r="834" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A834" s="162"/>
+      <c r="A834" s="97"/>
       <c r="B834" s="20"/>
       <c r="C834" s="21"/>
       <c r="D834" s="22"/>
@@ -31438,10 +31464,10 @@
       <c r="T834" s="25"/>
       <c r="U834" s="25"/>
       <c r="V834" s="26"/>
-      <c r="W834" s="162"/>
+      <c r="W834" s="97"/>
     </row>
     <row r="835" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A835" s="162"/>
+      <c r="A835" s="97"/>
       <c r="B835" s="20"/>
       <c r="C835" s="21"/>
       <c r="D835" s="22"/>
@@ -31463,10 +31489,10 @@
       <c r="T835" s="25"/>
       <c r="U835" s="25"/>
       <c r="V835" s="26"/>
-      <c r="W835" s="162"/>
+      <c r="W835" s="97"/>
     </row>
     <row r="836" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A836" s="162"/>
+      <c r="A836" s="97"/>
       <c r="B836" s="20"/>
       <c r="C836" s="21"/>
       <c r="D836" s="22"/>
@@ -31488,10 +31514,10 @@
       <c r="T836" s="25"/>
       <c r="U836" s="25"/>
       <c r="V836" s="26"/>
-      <c r="W836" s="162"/>
+      <c r="W836" s="97"/>
     </row>
     <row r="837" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A837" s="162"/>
+      <c r="A837" s="97"/>
       <c r="B837" s="20"/>
       <c r="C837" s="21"/>
       <c r="D837" s="22"/>
@@ -31513,10 +31539,10 @@
       <c r="T837" s="25"/>
       <c r="U837" s="25"/>
       <c r="V837" s="26"/>
-      <c r="W837" s="162"/>
+      <c r="W837" s="97"/>
     </row>
     <row r="838" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A838" s="162"/>
+      <c r="A838" s="97"/>
       <c r="B838" s="20"/>
       <c r="C838" s="21"/>
       <c r="D838" s="22"/>
@@ -31538,10 +31564,10 @@
       <c r="T838" s="25"/>
       <c r="U838" s="25"/>
       <c r="V838" s="26"/>
-      <c r="W838" s="162"/>
+      <c r="W838" s="97"/>
     </row>
     <row r="839" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A839" s="162"/>
+      <c r="A839" s="97"/>
       <c r="B839" s="20"/>
       <c r="C839" s="21"/>
       <c r="D839" s="22"/>
@@ -31563,10 +31589,10 @@
       <c r="T839" s="25"/>
       <c r="U839" s="25"/>
       <c r="V839" s="26"/>
-      <c r="W839" s="162"/>
+      <c r="W839" s="97"/>
     </row>
     <row r="840" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A840" s="162"/>
+      <c r="A840" s="97"/>
       <c r="B840" s="20"/>
       <c r="C840" s="21"/>
       <c r="D840" s="22"/>
@@ -31588,10 +31614,10 @@
       <c r="T840" s="25"/>
       <c r="U840" s="25"/>
       <c r="V840" s="26"/>
-      <c r="W840" s="162"/>
+      <c r="W840" s="97"/>
     </row>
     <row r="841" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A841" s="162"/>
+      <c r="A841" s="97"/>
       <c r="B841" s="20"/>
       <c r="C841" s="21"/>
       <c r="D841" s="22"/>
@@ -31613,10 +31639,10 @@
       <c r="T841" s="25"/>
       <c r="U841" s="25"/>
       <c r="V841" s="26"/>
-      <c r="W841" s="162"/>
+      <c r="W841" s="97"/>
     </row>
     <row r="842" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A842" s="162"/>
+      <c r="A842" s="97"/>
       <c r="B842" s="20"/>
       <c r="C842" s="21"/>
       <c r="D842" s="22"/>
@@ -31638,10 +31664,10 @@
       <c r="T842" s="25"/>
       <c r="U842" s="25"/>
       <c r="V842" s="26"/>
-      <c r="W842" s="162"/>
+      <c r="W842" s="97"/>
     </row>
     <row r="843" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A843" s="162"/>
+      <c r="A843" s="97"/>
       <c r="B843" s="20"/>
       <c r="C843" s="21"/>
       <c r="D843" s="22"/>
@@ -31663,10 +31689,10 @@
       <c r="T843" s="25"/>
       <c r="U843" s="25"/>
       <c r="V843" s="26"/>
-      <c r="W843" s="162"/>
+      <c r="W843" s="97"/>
     </row>
     <row r="844" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A844" s="162"/>
+      <c r="A844" s="97"/>
       <c r="B844" s="20"/>
       <c r="C844" s="21"/>
       <c r="D844" s="22"/>
@@ -31688,10 +31714,10 @@
       <c r="T844" s="25"/>
       <c r="U844" s="25"/>
       <c r="V844" s="26"/>
-      <c r="W844" s="162"/>
+      <c r="W844" s="97"/>
     </row>
     <row r="845" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A845" s="162"/>
+      <c r="A845" s="97"/>
       <c r="B845" s="20"/>
       <c r="C845" s="21"/>
       <c r="D845" s="22"/>
@@ -31713,10 +31739,10 @@
       <c r="T845" s="25"/>
       <c r="U845" s="25"/>
       <c r="V845" s="26"/>
-      <c r="W845" s="162"/>
+      <c r="W845" s="97"/>
     </row>
     <row r="846" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A846" s="162"/>
+      <c r="A846" s="97"/>
       <c r="B846" s="20"/>
       <c r="C846" s="21"/>
       <c r="D846" s="22"/>
@@ -31738,10 +31764,10 @@
       <c r="T846" s="25"/>
       <c r="U846" s="25"/>
       <c r="V846" s="26"/>
-      <c r="W846" s="162"/>
+      <c r="W846" s="97"/>
     </row>
     <row r="847" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A847" s="162"/>
+      <c r="A847" s="97"/>
       <c r="B847" s="20"/>
       <c r="C847" s="21"/>
       <c r="D847" s="22"/>
@@ -31763,10 +31789,10 @@
       <c r="T847" s="25"/>
       <c r="U847" s="25"/>
       <c r="V847" s="26"/>
-      <c r="W847" s="162"/>
+      <c r="W847" s="97"/>
     </row>
     <row r="848" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A848" s="162"/>
+      <c r="A848" s="97"/>
       <c r="B848" s="20"/>
       <c r="C848" s="21"/>
       <c r="D848" s="22"/>
@@ -31788,10 +31814,10 @@
       <c r="T848" s="25"/>
       <c r="U848" s="25"/>
       <c r="V848" s="26"/>
-      <c r="W848" s="162"/>
+      <c r="W848" s="97"/>
     </row>
     <row r="849" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A849" s="162"/>
+      <c r="A849" s="97"/>
       <c r="B849" s="20"/>
       <c r="C849" s="21"/>
       <c r="D849" s="22"/>
@@ -31813,10 +31839,10 @@
       <c r="T849" s="25"/>
       <c r="U849" s="25"/>
       <c r="V849" s="26"/>
-      <c r="W849" s="162"/>
+      <c r="W849" s="97"/>
     </row>
     <row r="850" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A850" s="162"/>
+      <c r="A850" s="97"/>
       <c r="B850" s="20"/>
       <c r="C850" s="21"/>
       <c r="D850" s="22"/>
@@ -31838,10 +31864,10 @@
       <c r="T850" s="25"/>
       <c r="U850" s="25"/>
       <c r="V850" s="26"/>
-      <c r="W850" s="162"/>
+      <c r="W850" s="97"/>
     </row>
     <row r="851" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A851" s="162"/>
+      <c r="A851" s="97"/>
       <c r="B851" s="20"/>
       <c r="C851" s="21"/>
       <c r="D851" s="22"/>
@@ -31863,10 +31889,10 @@
       <c r="T851" s="25"/>
       <c r="U851" s="25"/>
       <c r="V851" s="26"/>
-      <c r="W851" s="162"/>
+      <c r="W851" s="97"/>
     </row>
     <row r="852" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A852" s="162"/>
+      <c r="A852" s="97"/>
       <c r="B852" s="20"/>
       <c r="C852" s="21"/>
       <c r="D852" s="22"/>
@@ -31888,10 +31914,10 @@
       <c r="T852" s="25"/>
       <c r="U852" s="25"/>
       <c r="V852" s="26"/>
-      <c r="W852" s="162"/>
+      <c r="W852" s="97"/>
     </row>
     <row r="853" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A853" s="162"/>
+      <c r="A853" s="97"/>
       <c r="B853" s="20"/>
       <c r="C853" s="21"/>
       <c r="D853" s="22"/>
@@ -31913,10 +31939,10 @@
       <c r="T853" s="25"/>
       <c r="U853" s="25"/>
       <c r="V853" s="26"/>
-      <c r="W853" s="162"/>
+      <c r="W853" s="97"/>
     </row>
     <row r="854" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A854" s="162"/>
+      <c r="A854" s="97"/>
       <c r="B854" s="20"/>
       <c r="C854" s="21"/>
       <c r="D854" s="22"/>
@@ -31938,10 +31964,10 @@
       <c r="T854" s="25"/>
       <c r="U854" s="25"/>
       <c r="V854" s="26"/>
-      <c r="W854" s="162"/>
+      <c r="W854" s="97"/>
     </row>
     <row r="855" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A855" s="162"/>
+      <c r="A855" s="97"/>
       <c r="B855" s="20"/>
       <c r="C855" s="21"/>
       <c r="D855" s="22"/>
@@ -31963,10 +31989,10 @@
       <c r="T855" s="25"/>
       <c r="U855" s="25"/>
       <c r="V855" s="26"/>
-      <c r="W855" s="162"/>
+      <c r="W855" s="97"/>
     </row>
     <row r="856" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A856" s="162"/>
+      <c r="A856" s="97"/>
       <c r="B856" s="20"/>
       <c r="C856" s="21"/>
       <c r="D856" s="22"/>
@@ -31988,10 +32014,10 @@
       <c r="T856" s="25"/>
       <c r="U856" s="25"/>
       <c r="V856" s="26"/>
-      <c r="W856" s="162"/>
+      <c r="W856" s="97"/>
     </row>
     <row r="857" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A857" s="162"/>
+      <c r="A857" s="97"/>
       <c r="B857" s="20"/>
       <c r="C857" s="21"/>
       <c r="D857" s="22"/>
@@ -32013,10 +32039,10 @@
       <c r="T857" s="25"/>
       <c r="U857" s="25"/>
       <c r="V857" s="26"/>
-      <c r="W857" s="162"/>
+      <c r="W857" s="97"/>
     </row>
     <row r="858" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A858" s="162"/>
+      <c r="A858" s="97"/>
       <c r="B858" s="20"/>
       <c r="C858" s="21"/>
       <c r="D858" s="22"/>
@@ -32038,10 +32064,10 @@
       <c r="T858" s="25"/>
       <c r="U858" s="25"/>
       <c r="V858" s="26"/>
-      <c r="W858" s="162"/>
+      <c r="W858" s="97"/>
     </row>
     <row r="859" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A859" s="162"/>
+      <c r="A859" s="97"/>
       <c r="B859" s="20"/>
       <c r="C859" s="21"/>
       <c r="D859" s="22"/>
@@ -32063,10 +32089,10 @@
       <c r="T859" s="25"/>
       <c r="U859" s="25"/>
       <c r="V859" s="26"/>
-      <c r="W859" s="162"/>
+      <c r="W859" s="97"/>
     </row>
     <row r="860" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A860" s="162"/>
+      <c r="A860" s="97"/>
       <c r="B860" s="20"/>
       <c r="C860" s="21"/>
       <c r="D860" s="22"/>
@@ -32088,10 +32114,10 @@
       <c r="T860" s="25"/>
       <c r="U860" s="25"/>
       <c r="V860" s="26"/>
-      <c r="W860" s="162"/>
+      <c r="W860" s="97"/>
     </row>
     <row r="861" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A861" s="162"/>
+      <c r="A861" s="97"/>
       <c r="B861" s="20"/>
       <c r="C861" s="21"/>
       <c r="D861" s="22"/>
@@ -32113,10 +32139,10 @@
       <c r="T861" s="25"/>
       <c r="U861" s="25"/>
       <c r="V861" s="26"/>
-      <c r="W861" s="162"/>
+      <c r="W861" s="97"/>
     </row>
     <row r="862" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A862" s="162"/>
+      <c r="A862" s="97"/>
       <c r="B862" s="20"/>
       <c r="C862" s="21"/>
       <c r="D862" s="22"/>
@@ -32138,10 +32164,10 @@
       <c r="T862" s="25"/>
       <c r="U862" s="25"/>
       <c r="V862" s="26"/>
-      <c r="W862" s="162"/>
+      <c r="W862" s="97"/>
     </row>
     <row r="863" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A863" s="162"/>
+      <c r="A863" s="97"/>
       <c r="B863" s="20"/>
       <c r="C863" s="21"/>
       <c r="D863" s="22"/>
@@ -32163,10 +32189,10 @@
       <c r="T863" s="25"/>
       <c r="U863" s="25"/>
       <c r="V863" s="26"/>
-      <c r="W863" s="162"/>
+      <c r="W863" s="97"/>
     </row>
     <row r="864" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A864" s="162"/>
+      <c r="A864" s="97"/>
       <c r="B864" s="20"/>
       <c r="C864" s="21"/>
       <c r="D864" s="22"/>
@@ -32188,10 +32214,10 @@
       <c r="T864" s="25"/>
       <c r="U864" s="25"/>
       <c r="V864" s="26"/>
-      <c r="W864" s="162"/>
+      <c r="W864" s="97"/>
     </row>
     <row r="865" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A865" s="162"/>
+      <c r="A865" s="97"/>
       <c r="B865" s="20"/>
       <c r="C865" s="21"/>
       <c r="D865" s="22"/>
@@ -32213,10 +32239,10 @@
       <c r="T865" s="25"/>
       <c r="U865" s="25"/>
       <c r="V865" s="26"/>
-      <c r="W865" s="162"/>
+      <c r="W865" s="97"/>
     </row>
     <row r="866" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A866" s="162"/>
+      <c r="A866" s="97"/>
       <c r="B866" s="20"/>
       <c r="C866" s="21"/>
       <c r="D866" s="22"/>
@@ -32238,10 +32264,10 @@
       <c r="T866" s="25"/>
       <c r="U866" s="25"/>
       <c r="V866" s="26"/>
-      <c r="W866" s="162"/>
+      <c r="W866" s="97"/>
     </row>
     <row r="867" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A867" s="162"/>
+      <c r="A867" s="97"/>
       <c r="B867" s="20"/>
       <c r="C867" s="21"/>
       <c r="D867" s="22"/>
@@ -32263,10 +32289,10 @@
       <c r="T867" s="25"/>
       <c r="U867" s="25"/>
       <c r="V867" s="26"/>
-      <c r="W867" s="162"/>
+      <c r="W867" s="97"/>
     </row>
     <row r="868" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A868" s="162"/>
+      <c r="A868" s="97"/>
       <c r="B868" s="20"/>
       <c r="C868" s="21"/>
       <c r="D868" s="22"/>
@@ -32288,10 +32314,10 @@
       <c r="T868" s="25"/>
       <c r="U868" s="25"/>
       <c r="V868" s="26"/>
-      <c r="W868" s="162"/>
+      <c r="W868" s="97"/>
     </row>
     <row r="869" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A869" s="162"/>
+      <c r="A869" s="97"/>
       <c r="B869" s="20"/>
       <c r="C869" s="21"/>
       <c r="D869" s="22"/>
@@ -32313,10 +32339,10 @@
       <c r="T869" s="25"/>
       <c r="U869" s="25"/>
       <c r="V869" s="26"/>
-      <c r="W869" s="162"/>
+      <c r="W869" s="97"/>
     </row>
     <row r="870" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A870" s="162"/>
+      <c r="A870" s="97"/>
       <c r="B870" s="20"/>
       <c r="C870" s="21"/>
       <c r="D870" s="22"/>
@@ -32338,10 +32364,10 @@
       <c r="T870" s="25"/>
       <c r="U870" s="25"/>
       <c r="V870" s="26"/>
-      <c r="W870" s="162"/>
+      <c r="W870" s="97"/>
     </row>
     <row r="871" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A871" s="162"/>
+      <c r="A871" s="97"/>
       <c r="B871" s="20"/>
       <c r="C871" s="21"/>
       <c r="D871" s="22"/>
@@ -32363,7 +32389,7 @@
       <c r="T871" s="25"/>
       <c r="U871" s="25"/>
       <c r="V871" s="26"/>
-      <c r="W871" s="162"/>
+      <c r="W871" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -32373,11 +32399,6 @@
     <mergeCell ref="I728:M730"/>
     <mergeCell ref="D731:G731"/>
     <mergeCell ref="I731:L731"/>
-    <mergeCell ref="I483:M483"/>
-    <mergeCell ref="D547:H547"/>
-    <mergeCell ref="E722:H722"/>
-    <mergeCell ref="D723:H725"/>
-    <mergeCell ref="N723:R723"/>
     <mergeCell ref="D726:G726"/>
     <mergeCell ref="N726:R726"/>
     <mergeCell ref="I37:J37"/>
@@ -32386,16 +32407,22 @@
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I483:M483"/>
+    <mergeCell ref="D547:H547"/>
+    <mergeCell ref="E722:H722"/>
+    <mergeCell ref="D723:H725"/>
+    <mergeCell ref="N723:R723"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="W38" r:id="rId1" xr:uid="{561BE3F5-D347-4780-A606-3304F7D033F5}"/>
-    <hyperlink ref="W212" r:id="rId2" xr:uid="{A07F63F0-9673-4893-8041-0F34A701E9B0}"/>
-    <hyperlink ref="W287" r:id="rId3" xr:uid="{6CAAFA71-0FEC-4C4D-A75C-08D9306C934E}"/>
-    <hyperlink ref="W306" r:id="rId4" display="http://leagueoflegends.wikia.com/wiki/Kindred" xr:uid="{C388FCA2-9C34-46EA-B2A5-9DCC6DF8C6DC}"/>
-    <hyperlink ref="W441" r:id="rId5" xr:uid="{521E5F93-B3CD-453B-A1B0-BE4F93BF9B57}"/>
-    <hyperlink ref="W515" r:id="rId6" display="https://leagueoflegends.fandom.com/wiki/Samira" xr:uid="{F52286C2-6866-4F06-8BDF-DF37C59C1807}"/>
+    <hyperlink ref="W38" r:id="rId1" xr:uid="{7632BC5E-288F-4050-B17B-247A7DED9A48}"/>
+    <hyperlink ref="W212" r:id="rId2" xr:uid="{09E690B6-23DD-4926-8178-8AD21AC407EA}"/>
+    <hyperlink ref="W287" r:id="rId3" xr:uid="{37B620F3-11B7-4C00-B959-8C81D4DCC214}"/>
+    <hyperlink ref="W292" r:id="rId4" xr:uid="{4F8FD9AF-CADD-41EB-8037-A1685F0766F8}"/>
+    <hyperlink ref="W306" r:id="rId5" display="http://leagueoflegends.wikia.com/wiki/Kindred" xr:uid="{7A4E0FC5-344A-4A2A-8E87-8B3D244FABDE}"/>
+    <hyperlink ref="W441" r:id="rId6" xr:uid="{8C725DDF-7138-4F57-AF60-2E702312A991}"/>
+    <hyperlink ref="W515" r:id="rId7" display="https://leagueoflegends.fandom.com/wiki/Samira" xr:uid="{47683CC7-8DD1-460A-B89D-394728C48FFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>